--- a/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="363">
   <si>
     <t>POS</t>
   </si>
@@ -941,13 +941,7 @@
     <t>Project_Name</t>
   </si>
   <si>
-    <t>Project_ID</t>
-  </si>
-  <si>
     <t>Brief Description of the Project…</t>
-  </si>
-  <si>
-    <t>HasSystems</t>
   </si>
   <si>
     <t>Top level view with the identification of the:
@@ -955,9 +949,6 @@
 - System(s) of Interests, with associated sub-systems if relevant</t>
   </si>
   <si>
-    <t>S1, S2</t>
-  </si>
-  <si>
     <t>System(s) of Interest</t>
   </si>
   <si>
@@ -1292,6 +1283,9 @@
   </si>
   <si>
     <t>Won't</t>
+  </si>
+  <si>
+    <t>P1</t>
   </si>
 </sst>
 </file>
@@ -1637,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1820,15 +1814,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1951,39 +1936,33 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2032,6 +2011,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2041,12 +2065,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2056,45 +2074,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2113,6 +2092,27 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2122,27 +2122,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2180,16 +2159,28 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2589,12 +2580,12 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="44" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="44" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2663,7 +2654,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="78" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -2692,33 +2683,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
       <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="205" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="200" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
       <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -2786,9 +2777,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="206"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="208"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
       <c r="D14" s="14">
         <v>2</v>
       </c>
@@ -2866,9 +2857,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="206"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="208"/>
+      <c r="A17" s="201"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="14" t="s">
         <v>146</v>
       </c>
@@ -2951,7 +2942,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="78" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -2980,33 +2971,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="203" t="s">
+      <c r="A10" s="198" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="203"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
+      <c r="B10" s="198"/>
+      <c r="C10" s="198"/>
+      <c r="D10" s="198"/>
+      <c r="E10" s="198"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="198"/>
+      <c r="H10" s="198"/>
+      <c r="I10" s="198"/>
       <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="204" t="s">
+      <c r="A11" s="199" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="204"/>
-      <c r="C11" s="204"/>
-      <c r="D11" s="205" t="s">
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="200" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="205"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="205"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="205"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
       <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -3074,9 +3065,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="206"/>
-      <c r="B14" s="207"/>
-      <c r="C14" s="208"/>
+      <c r="A14" s="201"/>
+      <c r="B14" s="202"/>
+      <c r="C14" s="203"/>
       <c r="D14" s="14">
         <v>2</v>
       </c>
@@ -3154,9 +3145,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="206"/>
-      <c r="B17" s="207"/>
-      <c r="C17" s="208"/>
+      <c r="A17" s="201"/>
+      <c r="B17" s="202"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="14" t="s">
         <v>146</v>
       </c>
@@ -3230,11 +3221,11 @@
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="54"/>
-      <c r="E3" s="209"/>
-      <c r="F3" s="209"/>
-      <c r="G3" s="209"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
@@ -3243,51 +3234,51 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="80"/>
-      <c r="E4" s="210"/>
-      <c r="F4" s="210"/>
-      <c r="G4" s="210"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
+      <c r="E4" s="205"/>
+      <c r="F4" s="205"/>
+      <c r="G4" s="205"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A6" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="B6" s="214" t="s">
+      <c r="A6" s="209" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="214" t="s">
+      <c r="C6" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="214" t="s">
-        <v>265</v>
-      </c>
-      <c r="E6" s="214" t="s">
+      <c r="D6" s="209" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="214" t="s">
-        <v>279</v>
-      </c>
-      <c r="G6" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="212"/>
-      <c r="I6" s="213"/>
+      <c r="F6" s="209" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" s="206" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="207"/>
+      <c r="I6" s="208"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="214"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="214"/>
-      <c r="E7" s="214"/>
-      <c r="F7" s="214"/>
-      <c r="G7" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="90" t="s">
+      <c r="A7" s="209"/>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="H7" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="I7" s="90" t="s">
+      <c r="I7" s="87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3391,12 +3382,12 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
-      <c r="K3" s="209"/>
-      <c r="L3" s="209"/>
+      <c r="K3" s="204"/>
+      <c r="L3" s="204"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="79"/>
@@ -3407,61 +3398,61 @@
       <c r="H4" s="80"/>
       <c r="I4" s="80"/>
       <c r="J4" s="80"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="210"/>
+      <c r="K4" s="205"/>
+      <c r="L4" s="205"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="214" t="s">
+      <c r="A7" s="209" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="C7" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="215" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="215" t="s">
-        <v>352</v>
-      </c>
-      <c r="F7" s="217" t="s">
+      <c r="D7" s="212" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="212" t="s">
+        <v>349</v>
+      </c>
+      <c r="F7" s="210" t="s">
         <v>208</v>
       </c>
-      <c r="G7" s="217" t="s">
+      <c r="G7" s="210" t="s">
         <v>209</v>
       </c>
-      <c r="H7" s="214" t="s">
+      <c r="H7" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="214" t="s">
-        <v>279</v>
-      </c>
-      <c r="J7" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="K7" s="212"/>
-      <c r="L7" s="213"/>
+      <c r="I7" s="209" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="206" t="s">
+        <v>275</v>
+      </c>
+      <c r="K7" s="207"/>
+      <c r="L7" s="208"/>
     </row>
     <row r="8" spans="1:12" ht="31.5">
-      <c r="A8" s="214"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="216"/>
-      <c r="F8" s="218"/>
-      <c r="G8" s="218"/>
-      <c r="H8" s="214"/>
-      <c r="I8" s="214"/>
-      <c r="J8" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="K8" s="90" t="s">
+      <c r="A8" s="209"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="211"/>
+      <c r="G8" s="211"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="K8" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="L8" s="90" t="s">
+      <c r="L8" s="87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3499,6 +3490,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="F7:F8"/>
@@ -3506,11 +3502,6 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:J10">
@@ -3573,12 +3564,12 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="79"/>
@@ -3586,49 +3577,49 @@
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
-      <c r="H4" s="210"/>
-      <c r="I4" s="210"/>
+      <c r="H4" s="205"/>
+      <c r="I4" s="205"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="214" t="s">
-        <v>264</v>
-      </c>
-      <c r="B7" s="214" t="s">
+      <c r="A7" s="209" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="214" t="s">
+      <c r="C7" s="209" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="215" t="s">
-        <v>272</v>
-      </c>
-      <c r="E7" s="214" t="s">
+      <c r="D7" s="212" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="209" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="214" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="211" t="s">
-        <v>278</v>
-      </c>
-      <c r="H7" s="212"/>
-      <c r="I7" s="213"/>
+      <c r="F7" s="209" t="s">
+        <v>276</v>
+      </c>
+      <c r="G7" s="206" t="s">
+        <v>275</v>
+      </c>
+      <c r="H7" s="207"/>
+      <c r="I7" s="208"/>
     </row>
     <row r="8" spans="1:9" ht="31.5">
-      <c r="A8" s="214"/>
-      <c r="B8" s="214"/>
-      <c r="C8" s="214"/>
-      <c r="D8" s="216"/>
-      <c r="E8" s="214"/>
-      <c r="F8" s="214"/>
-      <c r="G8" s="90" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" s="90" t="s">
+      <c r="A8" s="209"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="213"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="87" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="I8" s="90" t="s">
+      <c r="I8" s="87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -3715,22 +3706,22 @@
         <v>Prj-Demo - Demo System</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="129"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="126"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="81" t="s">
         <v>147</v>
       </c>
       <c r="B4" s="81"/>
-      <c r="C4" s="130"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="132"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="18" t="s">
@@ -3933,16 +3924,16 @@
         <v>80</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>358</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>361</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>364</v>
       </c>
       <c r="F19" s="23"/>
     </row>
@@ -3998,25 +3989,25 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
+        <v>289</v>
+      </c>
+      <c r="B26" s="97"/>
+      <c r="C26" s="98"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="5"/>
-      <c r="B28" s="99"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="85"/>
       <c r="D28" s="85"/>
       <c r="E28" s="85"/>
@@ -4033,18 +4024,18 @@
       <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="125"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="126"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="126"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="126"/>
-      <c r="K29" s="126"/>
-      <c r="L29" s="126"/>
-      <c r="M29" s="126"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="123"/>
+      <c r="D29" s="123"/>
+      <c r="E29" s="123"/>
+      <c r="F29" s="123"/>
+      <c r="G29" s="123"/>
+      <c r="H29" s="123"/>
+      <c r="I29" s="123"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="123"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="123"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
@@ -4152,14 +4143,14 @@
       <c r="A37" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="137"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
+      <c r="B37" s="134"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="135"/>
+      <c r="F37" s="135"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="135"/>
+      <c r="I37" s="135"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
@@ -4207,12 +4198,12 @@
       <c r="A42" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="B42" s="123"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="56" t="s">
@@ -4241,10 +4232,10 @@
       <c r="A45" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="125"/>
-      <c r="C45" s="126"/>
-      <c r="D45" s="126"/>
-      <c r="E45" s="136"/>
+      <c r="B45" s="122"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="133"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="56" t="s">
@@ -4287,13 +4278,13 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="130" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="135"/>
+      <c r="B50" s="131"/>
+      <c r="C50" s="131"/>
+      <c r="D50" s="131"/>
+      <c r="E50" s="132"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -4350,13 +4341,13 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="B55" s="134"/>
-      <c r="C55" s="134"/>
-      <c r="D55" s="134"/>
-      <c r="E55" s="135"/>
+      <c r="B55" s="131"/>
+      <c r="C55" s="131"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="132"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
@@ -4376,7 +4367,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="21" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="35"/>
@@ -4392,7 +4383,7 @@
         <v>81</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>84</v>
@@ -4402,7 +4393,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="21" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B62" s="34"/>
       <c r="C62" s="35"/>
@@ -4423,22 +4414,22 @@
         <v>231</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>228</v>
       </c>
       <c r="E63" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>332</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>333</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>334</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>335</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>336</v>
       </c>
       <c r="I63" s="23"/>
       <c r="J63" s="23" t="s">
@@ -4453,19 +4444,19 @@
         <v>226</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>35</v>
@@ -4514,7 +4505,7 @@
         <v>81</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>84</v>
@@ -4526,7 +4517,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="21" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="35"/>
@@ -4547,19 +4538,19 @@
         <v>230</v>
       </c>
       <c r="D69" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="G69" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>325</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>326</v>
-      </c>
       <c r="H69" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4570,7 +4561,7 @@
         <v>81</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>84</v>
@@ -4580,20 +4571,20 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="35"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="22" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4617,10 +4608,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4628,7 +4619,7 @@
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="24.140625" customWidth="1"/>
     <col min="3" max="3" width="81.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4639,16 +4630,16 @@
     <row r="2" spans="1:7" ht="7.5" customHeight="1">
       <c r="A2" s="44"/>
     </row>
-    <row r="3" spans="1:7" ht="23.25">
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
       <c r="A3" s="51" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="141" t="s">
-        <v>251</v>
-      </c>
-      <c r="D3" s="141"/>
+      <c r="C3" s="136" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" s="214"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
@@ -4657,8 +4648,8 @@
         <v>148</v>
       </c>
       <c r="B4" s="76"/>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
+      <c r="C4" s="136"/>
+      <c r="D4" s="214"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
     </row>
@@ -4666,16 +4657,17 @@
       <c r="A5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="217" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="140"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
+      <c r="B6" s="217"/>
+      <c r="C6" s="217"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>3</v>
@@ -4683,41 +4675,37 @@
       <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>250</v>
-      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>247</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="87"/>
+      <c r="A9" s="214"/>
+      <c r="B9" s="214"/>
+      <c r="C9" s="214"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A10" s="139" t="s">
-        <v>253</v>
-      </c>
-      <c r="B10" s="139"/>
-      <c r="C10" s="139"/>
-      <c r="D10" s="139"/>
+      <c r="A10" s="215" t="s">
+        <v>250</v>
+      </c>
+      <c r="B10" s="215"/>
+      <c r="C10" s="215"/>
+      <c r="D10" s="215"/>
+      <c r="E10" s="216"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>3</v>
@@ -4726,7 +4714,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4734,66 +4725,68 @@
         <v>121</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D12" s="45"/>
+      <c r="E12" s="12" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
         <v>122</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D13" s="12"/>
+      <c r="E13" s="12" t="s">
+        <v>362</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
         <v>123</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" s="12" t="str">
         <f t="shared" ref="D14:D15" si="0">$A$12</f>
         <v>S1</v>
       </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
         <v>S1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="E15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="C3:D4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="Index" display="Back to Index"/>
@@ -4808,7 +4801,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
@@ -4840,36 +4833,36 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="142" t="str">
+      <c r="A2" s="143" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
-      <c r="F2" s="142"/>
-      <c r="G2" s="142"/>
-      <c r="H2" s="142"/>
-      <c r="I2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" spans="1:9" ht="23.25">
-      <c r="A3" s="143" t="s">
+      <c r="A3" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
     </row>
     <row r="4" spans="1:9" ht="29.25" customHeight="1"/>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -4878,7 +4871,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" s="27" t="s">
         <v>239</v>
@@ -4897,135 +4890,135 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="144" t="s">
+      <c r="B6" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="144" t="s">
+      <c r="C6" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="140" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="144"/>
-      <c r="F6" s="147" t="s">
+      <c r="E6" s="140"/>
+      <c r="F6" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="144" t="s">
+      <c r="G6" s="140" t="s">
         <v>99</v>
       </c>
       <c r="H6" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="145"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="141"/>
       <c r="H7" s="16" t="s">
         <v>59</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="146"/>
-      <c r="F8" s="149"/>
-      <c r="G8" s="146"/>
+      <c r="A8" s="142"/>
+      <c r="B8" s="142"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="142"/>
       <c r="H8" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="140" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="144" t="s">
-        <v>268</v>
-      </c>
-      <c r="C9" s="144" t="s">
+      <c r="B9" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="140" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="147" t="s">
+      <c r="E9" s="140"/>
+      <c r="F9" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="144" t="s">
+      <c r="G9" s="140" t="s">
         <v>100</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>60</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="145"/>
-      <c r="D10" s="145"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="145"/>
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="138"/>
+      <c r="G10" s="141"/>
       <c r="H10" s="16" t="s">
         <v>59</v>
       </c>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="146"/>
-      <c r="B11" s="146"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="149"/>
-      <c r="G11" s="146"/>
+      <c r="A11" s="142"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="139"/>
+      <c r="G11" s="142"/>
       <c r="H11" s="16" t="s">
         <v>58</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="144" t="s">
+      <c r="A12" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="144" t="s">
-        <v>271</v>
-      </c>
-      <c r="C12" s="144" t="s">
+      <c r="B12" s="140" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="140" t="s">
         <v>243</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="D12" s="140" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="140" t="s">
         <v>241</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="140" t="s">
         <v>242</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -5034,26 +5027,26 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A13" s="145"/>
-      <c r="B13" s="145"/>
-      <c r="C13" s="145"/>
-      <c r="D13" s="145"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="148"/>
-      <c r="G13" s="145"/>
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="141"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="138"/>
+      <c r="G13" s="141"/>
       <c r="H13" s="16" t="s">
         <v>59</v>
       </c>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="149"/>
-      <c r="G14" s="146"/>
+      <c r="A14" s="142"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="139"/>
+      <c r="G14" s="142"/>
       <c r="H14" s="16" t="s">
         <v>58</v>
       </c>
@@ -5061,6 +5054,15 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="A12:A14"/>
@@ -5075,15 +5077,6 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="E9:E11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D12 D9">
@@ -5144,30 +5137,30 @@
     </row>
     <row r="2" spans="1:6" ht="10.5" customHeight="1"/>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="142" t="str">
+      <c r="A3" s="143" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="144" t="s">
         <v>150</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1"/>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -5176,13 +5169,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
@@ -5229,7 +5222,7 @@
         <v>120</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>68</v>
@@ -5291,115 +5284,115 @@
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A3" s="142" t="str">
+      <c r="A3" s="143" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="144" t="s">
         <v>237</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="164" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="164"/>
-      <c r="C6" s="163"/>
-      <c r="D6" s="163"/>
+      <c r="A6" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="159"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="158"/>
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="165" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="A7" s="160" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="160"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
-      <c r="A9" s="91" t="s">
-        <v>264</v>
-      </c>
-      <c r="B9" s="91" t="s">
+      <c r="A9" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="153"/>
+      <c r="G9" s="154"/>
+    </row>
+    <row r="10" spans="1:14" ht="22.5" customHeight="1">
+      <c r="A10" s="145"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="155" t="s">
         <v>275</v>
       </c>
-      <c r="E9" s="91" t="s">
-        <v>279</v>
-      </c>
-      <c r="F9" s="158"/>
-      <c r="G9" s="159"/>
-    </row>
-    <row r="10" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A10" s="150"/>
-      <c r="B10" s="151"/>
-      <c r="C10" s="152"/>
-      <c r="D10" s="160" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="161"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="162"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="157"/>
     </row>
     <row r="11" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A11" s="153"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="89" t="s">
+      <c r="A11" s="148"/>
+      <c r="B11" s="149"/>
+      <c r="C11" s="150"/>
+      <c r="D11" s="86" t="s">
         <v>201</v>
       </c>
-      <c r="E11" s="89" t="s">
+      <c r="E11" s="86" t="s">
         <v>202</v>
       </c>
-      <c r="F11" s="89" t="s">
+      <c r="F11" s="86" t="s">
         <v>198</v>
       </c>
-      <c r="G11" s="89" t="s">
+      <c r="G11" s="86" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.25" customHeight="1">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="B12" s="113" t="s">
-        <v>276</v>
-      </c>
-      <c r="C12" s="113" t="s">
+      <c r="B12" s="110" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="110" t="s">
         <v>174</v>
       </c>
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="E12" s="113" t="s">
+      <c r="E12" s="110" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1">
       <c r="A13" s="16"/>
@@ -5418,7 +5411,7 @@
         <v>110</v>
       </c>
       <c r="H13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" customHeight="1">
@@ -5439,21 +5432,21 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
-      <c r="A15" s="113" t="s">
+      <c r="A15" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="113"/>
-      <c r="C15" s="113" t="s">
+      <c r="B15" s="110"/>
+      <c r="C15" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="113" t="s">
+      <c r="E15" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
       <c r="K15" s="24"/>
@@ -5472,7 +5465,7 @@
       </c>
       <c r="G16" s="16"/>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="22.5" customHeight="1">
@@ -5487,21 +5480,21 @@
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A18" s="113" t="s">
+      <c r="A18" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="113" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="110" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="110" t="s">
         <v>173</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="156"/>
-      <c r="G18" s="157"/>
+      <c r="F18" s="151"/>
+      <c r="G18" s="152"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
       <c r="A19" s="2" t="s">
@@ -5514,7 +5507,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5556,7 +5549,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5582,89 +5577,89 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="23.25">
-      <c r="A3" s="142" t="str">
+      <c r="A3" s="143" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="143"/>
+      <c r="E3" s="143"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="143"/>
+      <c r="H3" s="143"/>
+      <c r="I3" s="143"/>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="143"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="143" t="s">
-        <v>320</v>
-      </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
+      <c r="A4" s="144" t="s">
+        <v>317</v>
+      </c>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="94" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="107" t="s">
         <v>127</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="158"/>
       <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
+        <v>309</v>
+      </c>
+      <c r="C8" s="158"/>
+      <c r="D8" s="158"/>
       <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A9" s="96"/>
+      <c r="A9" s="93"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
       <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
-      <c r="A10" s="102" t="s">
+      <c r="A10" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="103"/>
-      <c r="C10" s="103"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="103"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+      <c r="K10" s="171"/>
+      <c r="L10" s="171"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A11" s="98" t="s">
-        <v>264</v>
-      </c>
-      <c r="B11" s="98" t="s">
+      <c r="A11" s="95" t="s">
+        <v>261</v>
+      </c>
+      <c r="B11" s="95" t="s">
         <v>3</v>
       </c>
       <c r="C11" s="39" t="s">
@@ -5673,33 +5668,33 @@
       <c r="D11" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="104" t="s">
+      <c r="E11" s="101" t="s">
+        <v>293</v>
+      </c>
+      <c r="F11" s="170"/>
+      <c r="G11" s="170"/>
+      <c r="H11" s="170"/>
+      <c r="I11" s="170"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="170"/>
+      <c r="L11" s="170"/>
+    </row>
+    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+      <c r="D12" s="176" t="s">
         <v>296</v>
       </c>
-      <c r="F11" s="181"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="181"/>
-      <c r="L11" s="181"/>
-    </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="166" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="167"/>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="168"/>
+      <c r="E12" s="177"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="177"/>
+      <c r="J12" s="177"/>
+      <c r="K12" s="177"/>
+      <c r="L12" s="178"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>3</v>
@@ -5720,99 +5715,99 @@
         <v>11</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="166" t="s">
-        <v>301</v>
-      </c>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="168"/>
+      <c r="D14" s="176" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14" s="177"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="177"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="177"/>
+      <c r="J14" s="177"/>
+      <c r="K14" s="177"/>
+      <c r="L14" s="178"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="G15" s="171"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="173"/>
+      <c r="G15" s="179"/>
+      <c r="H15" s="180"/>
+      <c r="I15" s="180"/>
+      <c r="J15" s="180"/>
+      <c r="K15" s="180"/>
+      <c r="L15" s="181"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="166" t="s">
-        <v>304</v>
-      </c>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="168"/>
+      <c r="D16" s="176" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" s="177"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="177"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
+      <c r="J16" s="177"/>
+      <c r="K16" s="177"/>
+      <c r="L16" s="178"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E17" s="184" t="s">
-        <v>306</v>
-      </c>
-      <c r="F17" s="185"/>
-      <c r="G17" s="185"/>
-      <c r="H17" s="185"/>
-      <c r="I17" s="185"/>
-      <c r="J17" s="185"/>
-      <c r="K17" s="185"/>
-      <c r="L17" s="186"/>
+        <v>261</v>
+      </c>
+      <c r="E17" s="173" t="s">
+        <v>303</v>
+      </c>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="106" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="110" t="s">
+      <c r="B18" s="107" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="111" t="s">
+      <c r="C18" s="108" t="s">
         <v>179</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="E18" s="109" t="s">
         <v>294</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="F18" s="151"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="162"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="162"/>
+      <c r="K18" s="162"/>
+      <c r="L18" s="152"/>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A19" s="165"/>
+      <c r="B19" s="165"/>
+      <c r="C19" s="161" t="s">
         <v>297</v>
-      </c>
-      <c r="F18" s="156"/>
-      <c r="G18" s="169"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="169"/>
-      <c r="K18" s="169"/>
-      <c r="L18" s="157"/>
-    </row>
-    <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="176"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="170" t="s">
-        <v>300</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>181</v>
@@ -5834,19 +5829,19 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="183"/>
-      <c r="B20" s="183"/>
-      <c r="C20" s="170"/>
+      <c r="A20" s="172"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="161"/>
       <c r="D20" s="2" t="s">
         <v>182</v>
       </c>
@@ -5865,16 +5860,16 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="183"/>
-      <c r="B21" s="183"/>
-      <c r="C21" s="170"/>
+      <c r="A21" s="172"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="161"/>
       <c r="D21" s="2" t="s">
         <v>246</v>
       </c>
@@ -5891,21 +5886,21 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="183"/>
-      <c r="B22" s="183"/>
-      <c r="C22" s="170"/>
+      <c r="A22" s="172"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="161"/>
       <c r="D22" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -5919,20 +5914,20 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="183"/>
-      <c r="B23" s="183"/>
-      <c r="C23" s="170" t="s">
-        <v>301</v>
+      <c r="A23" s="172"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="161" t="s">
+        <v>298</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>182</v>
@@ -5940,22 +5935,22 @@
       <c r="F23" s="25">
         <v>1</v>
       </c>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
       <c r="M23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="183"/>
-      <c r="B24" s="183"/>
-      <c r="C24" s="170"/>
+      <c r="A24" s="172"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="161"/>
       <c r="D24" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>182</v>
@@ -5963,19 +5958,19 @@
       <c r="F24" s="25">
         <v>1</v>
       </c>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="183"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="170"/>
+      <c r="A25" s="172"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="161"/>
       <c r="D25" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>246</v>
@@ -5983,95 +5978,95 @@
       <c r="F25" s="25">
         <v>1</v>
       </c>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="183"/>
-      <c r="B26" s="183"/>
-      <c r="C26" s="176" t="s">
+      <c r="A26" s="172"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="165" t="s">
+        <v>301</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E26" s="167" t="s">
+        <v>311</v>
+      </c>
+      <c r="F26" s="168"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="168"/>
+      <c r="J26" s="168"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="169"/>
+      <c r="M26" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="22.5" customHeight="1">
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="E26" s="178" t="s">
-        <v>314</v>
-      </c>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="179"/>
-      <c r="I26" s="179"/>
-      <c r="J26" s="179"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="180"/>
-      <c r="M26" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="177"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="177"/>
-      <c r="D27" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="E27" s="178" t="s">
-        <v>308</v>
-      </c>
-      <c r="F27" s="179"/>
-      <c r="G27" s="179"/>
-      <c r="H27" s="179"/>
-      <c r="I27" s="179"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="180"/>
+      <c r="E27" s="167" t="s">
+        <v>305</v>
+      </c>
+      <c r="F27" s="168"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="168"/>
+      <c r="J27" s="168"/>
+      <c r="K27" s="168"/>
+      <c r="L27" s="169"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="174"/>
-      <c r="B28" s="175"/>
-      <c r="C28" s="175"/>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
+      <c r="A28" s="163"/>
+      <c r="B28" s="164"/>
+      <c r="C28" s="164"/>
+      <c r="D28" s="164"/>
+      <c r="E28" s="164"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="164"/>
+      <c r="H28" s="164"/>
+      <c r="I28" s="164"/>
+      <c r="J28" s="164"/>
+      <c r="K28" s="164"/>
+      <c r="L28" s="164"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A29" s="109" t="s">
+      <c r="A29" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="110" t="s">
+      <c r="B29" s="107" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="111" t="s">
+      <c r="C29" s="108" t="s">
         <v>180</v>
       </c>
-      <c r="D29" s="109" t="s">
+      <c r="D29" s="106" t="s">
+        <v>291</v>
+      </c>
+      <c r="E29" s="109" t="s">
         <v>294</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="F29" s="151"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="162"/>
+      <c r="K29" s="162"/>
+      <c r="L29" s="152"/>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" customHeight="1">
+      <c r="C30" s="161" t="s">
         <v>297</v>
-      </c>
-      <c r="F29" s="156"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="157"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="170" t="s">
-        <v>300</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>181</v>
@@ -6091,14 +6086,14 @@
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="170"/>
+      <c r="C31" s="161"/>
       <c r="D31" s="2" t="s">
         <v>182</v>
       </c>
@@ -6117,14 +6112,14 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="170"/>
+      <c r="C32" s="161"/>
       <c r="D32" s="2" t="s">
         <v>246</v>
       </c>
@@ -6141,19 +6136,19 @@
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="170"/>
+      <c r="C33" s="161"/>
       <c r="D33" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
@@ -6165,39 +6160,39 @@
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A35" s="109" t="s">
-        <v>315</v>
-      </c>
-      <c r="B35" s="110" t="s">
-        <v>316</v>
-      </c>
-      <c r="C35" s="111" t="s">
-        <v>317</v>
-      </c>
-      <c r="D35" s="109" t="s">
-        <v>295</v>
-      </c>
-      <c r="E35" s="112" t="s">
+      <c r="A35" s="106" t="s">
+        <v>312</v>
+      </c>
+      <c r="B35" s="107" t="s">
+        <v>313</v>
+      </c>
+      <c r="C35" s="108" t="s">
+        <v>314</v>
+      </c>
+      <c r="D35" s="106" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="109" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="151"/>
+      <c r="G35" s="162"/>
+      <c r="H35" s="162"/>
+      <c r="I35" s="162"/>
+      <c r="J35" s="162"/>
+      <c r="K35" s="162"/>
+      <c r="L35" s="152"/>
+    </row>
+    <row r="36" spans="1:12" ht="18.75" customHeight="1">
+      <c r="C36" s="161" t="s">
         <v>297</v>
-      </c>
-      <c r="F35" s="156"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="157"/>
-    </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="170" t="s">
-        <v>300</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>181</v>
@@ -6217,14 +6212,14 @@
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="170"/>
+      <c r="C37" s="161"/>
       <c r="D37" s="2" t="s">
         <v>182</v>
       </c>
@@ -6243,14 +6238,14 @@
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="170"/>
+      <c r="C38" s="161"/>
       <c r="D38" s="2" t="s">
         <v>246</v>
       </c>
@@ -6267,19 +6262,19 @@
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="170"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -6291,18 +6286,18 @@
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="170" t="s">
-        <v>301</v>
+      <c r="C40" s="161" t="s">
+        <v>298</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>182</v>
@@ -6310,17 +6305,17 @@
       <c r="F40" s="25">
         <v>1</v>
       </c>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
+      <c r="G40" s="161"/>
+      <c r="H40" s="161"/>
+      <c r="I40" s="161"/>
+      <c r="J40" s="161"/>
+      <c r="K40" s="161"/>
+      <c r="L40" s="161"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="170"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>182</v>
@@ -6328,17 +6323,17 @@
       <c r="F41" s="25">
         <v>1</v>
       </c>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
+      <c r="G41" s="161"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="161"/>
+      <c r="J41" s="161"/>
+      <c r="K41" s="161"/>
+      <c r="L41" s="161"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="170"/>
+      <c r="C42" s="161"/>
       <c r="D42" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>246</v>
@@ -6346,21 +6341,25 @@
       <c r="F42" s="25">
         <v>1</v>
       </c>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
+      <c r="G42" s="161"/>
+      <c r="H42" s="161"/>
+      <c r="I42" s="161"/>
+      <c r="J42" s="161"/>
+      <c r="K42" s="161"/>
+      <c r="L42" s="161"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="30">
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="F29:L29"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="D16:L16"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="F35:L35"/>
@@ -6377,15 +6376,11 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="G25:L25"/>
-    <mergeCell ref="F29:L29"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="C36:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="G40:L40"/>
+    <mergeCell ref="G41:L41"/>
+    <mergeCell ref="G42:L42"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
@@ -6463,31 +6458,31 @@
       <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="10.5" customHeight="1"/>
-    <row r="6" spans="1:9" s="106" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A6" s="105" t="s">
+    <row r="6" spans="1:9" s="103" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A6" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="187"/>
-    </row>
-    <row r="7" spans="1:9" s="106" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="E6" s="182"/>
+    </row>
+    <row r="7" spans="1:9" s="103" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="187"/>
+      <c r="E7" s="182"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="191" t="s">
+      <c r="A9" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="191"/>
-      <c r="C9" s="191"/>
-      <c r="D9" s="191"/>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="186"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="186"/>
+      <c r="F9" s="186"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -6496,18 +6491,18 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B11" s="25" t="s">
         <v>97</v>
@@ -6526,18 +6521,18 @@
         <v>UOperator</v>
       </c>
       <c r="G11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>216</v>
@@ -6547,10 +6542,10 @@
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="25" t="s">
@@ -6570,26 +6565,26 @@
       <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="A15" s="89"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="91"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="183" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="189"/>
-      <c r="C16" s="189"/>
-      <c r="D16" s="189"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="190"/>
+      <c r="B16" s="184"/>
+      <c r="C16" s="184"/>
+      <c r="D16" s="184"/>
+      <c r="E16" s="184"/>
+      <c r="F16" s="185"/>
     </row>
     <row r="17" spans="1:7" ht="15.75">
       <c r="A17" s="8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>3</v>
@@ -6598,18 +6593,18 @@
         <v>5</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>117</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="25" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B18" s="25" t="s">
         <v>154</v>
@@ -6625,15 +6620,15 @@
       </c>
       <c r="F18" s="57"/>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="25" t="s">
@@ -6723,136 +6718,136 @@
       <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="144" t="s">
         <v>151</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="143"/>
-      <c r="K4" s="143"/>
-      <c r="L4" s="143"/>
-      <c r="M4" s="143"/>
-      <c r="N4" s="143"/>
-      <c r="O4" s="143"/>
-      <c r="P4" s="143"/>
-      <c r="Q4" s="143"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
+      <c r="H4" s="144"/>
+      <c r="I4" s="144"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="144"/>
+      <c r="P4" s="144"/>
+      <c r="Q4" s="144"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="108" t="s">
+      <c r="A6" s="105" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="109" t="s">
+      <c r="A7" s="106" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="195"/>
+      <c r="B9" s="196"/>
+      <c r="C9" s="196"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
+      <c r="L9" s="196"/>
+      <c r="M9" s="196"/>
+      <c r="N9" s="196"/>
+      <c r="O9" s="196"/>
+      <c r="P9" s="196"/>
+      <c r="Q9" s="197"/>
     </row>
     <row r="10" spans="1:17" ht="33" customHeight="1">
-      <c r="A10" s="199" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="199" t="s">
+      <c r="A10" s="188" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="199" t="s">
+      <c r="C10" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="199" t="s">
-        <v>265</v>
-      </c>
-      <c r="E10" s="196" t="s">
+      <c r="D10" s="188" t="s">
+        <v>262</v>
+      </c>
+      <c r="E10" s="192" t="s">
+        <v>339</v>
+      </c>
+      <c r="F10" s="194"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="188" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="190" t="s">
         <v>342</v>
       </c>
-      <c r="F10" s="197"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="199" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="201" t="s">
+      <c r="J10" s="191"/>
+      <c r="K10" s="192" t="s">
+        <v>128</v>
+      </c>
+      <c r="L10" s="193"/>
+      <c r="M10" s="192" t="s">
+        <v>344</v>
+      </c>
+      <c r="N10" s="193"/>
+      <c r="O10" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="P10" s="187" t="s">
         <v>345</v>
       </c>
-      <c r="J10" s="202"/>
-      <c r="K10" s="196" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="198"/>
-      <c r="M10" s="196" t="s">
-        <v>347</v>
-      </c>
-      <c r="N10" s="198"/>
-      <c r="O10" s="114" t="s">
-        <v>349</v>
-      </c>
-      <c r="P10" s="192" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q10" s="192"/>
+      <c r="Q10" s="187"/>
     </row>
     <row r="11" spans="1:17" ht="33" customHeight="1">
-      <c r="A11" s="200"/>
-      <c r="B11" s="200"/>
-      <c r="C11" s="200"/>
-      <c r="D11" s="200"/>
-      <c r="E11" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="F11" s="117" t="s">
+      <c r="A11" s="189"/>
+      <c r="B11" s="189"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="114" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="114" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="114" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="189"/>
+      <c r="I11" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="L11" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="H11" s="200"/>
-      <c r="I11" s="115" t="s">
-        <v>203</v>
-      </c>
-      <c r="J11" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="114" t="s">
-        <v>343</v>
-      </c>
-      <c r="L11" s="115" t="s">
-        <v>344</v>
-      </c>
-      <c r="M11" s="114" t="s">
+      <c r="M11" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="N11" s="114" t="s">
+      <c r="N11" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="O11" s="114"/>
-      <c r="P11" s="116" t="s">
+      <c r="O11" s="111"/>
+      <c r="P11" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="Q11" s="116" t="s">
+      <c r="Q11" s="113" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6870,10 +6865,10 @@
         <v>222</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
@@ -6898,7 +6893,7 @@
       <c r="O12" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="P12" s="122" t="s">
+      <c r="P12" s="119" t="s">
         <v>171</v>
       </c>
       <c r="Q12" s="12" t="s">
@@ -6909,7 +6904,7 @@
       <c r="A13" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="118" t="s">
         <v>187</v>
       </c>
       <c r="C13" s="16" t="s">
@@ -6917,11 +6912,11 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="65" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="65" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
@@ -6944,121 +6939,121 @@
       <c r="A14" s="82"/>
       <c r="B14" s="58"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="118"/>
-      <c r="E14" s="118"/>
-      <c r="F14" s="118"/>
-      <c r="G14" s="118"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
       <c r="H14" s="84"/>
       <c r="I14" s="84"/>
       <c r="J14" s="84"/>
-      <c r="K14" s="119"/>
-      <c r="L14" s="119"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="116"/>
       <c r="M14" s="85"/>
       <c r="N14" s="84"/>
       <c r="O14" s="84"/>
       <c r="P14" s="84"/>
-      <c r="Q14" s="120"/>
+      <c r="Q14" s="117"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="194"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="194"/>
-      <c r="Q15" s="195"/>
+      <c r="B15" s="196"/>
+      <c r="C15" s="196"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="196"/>
+      <c r="F15" s="196"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
+      <c r="J15" s="196"/>
+      <c r="K15" s="196"/>
+      <c r="L15" s="196"/>
+      <c r="M15" s="196"/>
+      <c r="N15" s="196"/>
+      <c r="O15" s="196"/>
+      <c r="P15" s="196"/>
+      <c r="Q15" s="197"/>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1">
-      <c r="A16" s="199" t="s">
-        <v>264</v>
-      </c>
-      <c r="B16" s="199" t="s">
+      <c r="A16" s="188" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="188" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="199" t="s">
-        <v>265</v>
-      </c>
-      <c r="E16" s="196" t="s">
+      <c r="D16" s="188" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="192" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="194"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="188" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="190" t="s">
         <v>342</v>
       </c>
-      <c r="F16" s="197"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="201" t="s">
+      <c r="J16" s="191"/>
+      <c r="K16" s="192" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="193"/>
+      <c r="M16" s="192" t="s">
+        <v>344</v>
+      </c>
+      <c r="N16" s="193"/>
+      <c r="O16" s="111" t="s">
+        <v>346</v>
+      </c>
+      <c r="P16" s="187" t="s">
         <v>345</v>
       </c>
-      <c r="J16" s="202"/>
-      <c r="K16" s="196" t="s">
-        <v>128</v>
-      </c>
-      <c r="L16" s="198"/>
-      <c r="M16" s="196" t="s">
-        <v>347</v>
-      </c>
-      <c r="N16" s="198"/>
-      <c r="O16" s="114" t="s">
-        <v>349</v>
-      </c>
-      <c r="P16" s="192" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q16" s="192"/>
+      <c r="Q16" s="187"/>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1">
-      <c r="A17" s="200"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="200"/>
-      <c r="D17" s="200"/>
-      <c r="E17" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="F17" s="117" t="s">
+      <c r="A17" s="189"/>
+      <c r="B17" s="189"/>
+      <c r="C17" s="189"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="114" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="114" t="s">
+        <v>337</v>
+      </c>
+      <c r="G17" s="114" t="s">
+        <v>338</v>
+      </c>
+      <c r="H17" s="189"/>
+      <c r="I17" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="G17" s="117" t="s">
+      <c r="L17" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="H17" s="200"/>
-      <c r="I17" s="115" t="s">
-        <v>203</v>
-      </c>
-      <c r="J17" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="114" t="s">
-        <v>343</v>
-      </c>
-      <c r="L17" s="115" t="s">
-        <v>344</v>
-      </c>
-      <c r="M17" s="114" t="s">
+      <c r="M17" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="N17" s="114" t="s">
+      <c r="N17" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="O17" s="114"/>
-      <c r="P17" s="116" t="s">
+      <c r="O17" s="111"/>
+      <c r="P17" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="Q17" s="116" t="s">
+      <c r="Q17" s="113" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7085,19 +7080,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="A9:Q9"/>
@@ -7108,6 +7090,19 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L18">

--- a/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="363">
   <si>
     <t>POS</t>
   </si>
@@ -4610,7 +4610,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -5257,10 +5257,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5468,7 +5468,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="22.5" customHeight="1">
+    <row r="17" spans="1:7" ht="22.5" customHeight="1">
       <c r="A17" s="16"/>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -5479,7 +5479,7 @@
       </c>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="1:8" ht="18.75" customHeight="1">
+    <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="110" t="s">
         <v>111</v>
       </c>
@@ -5495,20 +5495,6 @@
       </c>
       <c r="F18" s="151"/>
       <c r="G18" s="152"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" t="s">
-        <v>274</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5523,17 +5509,17 @@
     <mergeCell ref="A7:B7"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18:E20 E15 E12">
+      <formula1>CriticalityGoal</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G13:G14 G16:G17">
       <formula1>IDS</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F20 F16:F17 F13:F14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19 F13:F14 F16:F17">
       <formula1>GoalDependencyType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16 D19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D13:D14 D16">
       <formula1>GoalDecompositionType</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E12 E15 E18 E20:E21">
-      <formula1>CriticalityGoal</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -5549,7 +5535,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>

--- a/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="360">
   <si>
     <t>POS</t>
   </si>
@@ -241,12 +241,6 @@
   </si>
   <si>
     <t>regex</t>
-  </si>
-  <si>
-    <t>E.1</t>
-  </si>
-  <si>
-    <t>E.2</t>
   </si>
   <si>
     <t>question</t>
@@ -1133,9 +1127,6 @@
   </si>
   <si>
     <t>(attribute2 in [A, B, C, D])</t>
-  </si>
-  <si>
-    <t>E.3</t>
   </si>
   <si>
     <t>entity3</t>
@@ -2502,7 +2493,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="23.25">
       <c r="A1" s="51" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B1" s="48"/>
       <c r="C1" s="49"/>
@@ -2511,7 +2502,7 @@
     </row>
     <row r="2" spans="1:5" ht="23.25">
       <c r="A2" s="75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="79"/>
@@ -2520,72 +2511,72 @@
     </row>
     <row r="4" spans="1:5" ht="26.25">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="44" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="44" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="44" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="44" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -2634,7 +2625,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
@@ -2654,7 +2645,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="78" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -2668,23 +2659,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" s="198"/>
       <c r="C10" s="198"/>
@@ -2698,12 +2689,12 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="199" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="199"/>
       <c r="C11" s="199"/>
       <c r="D11" s="200" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="200"/>
       <c r="F11" s="200"/>
@@ -2720,57 +2711,57 @@
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="64" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="64" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J13" s="13">
         <v>2</v>
@@ -2784,22 +2775,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -2810,46 +2801,46 @@
         <v>10</v>
       </c>
       <c r="C15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="64" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="64" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -2861,11 +2852,11 @@
       <c r="B17" s="202"/>
       <c r="C17" s="203"/>
       <c r="D17" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -2922,7 +2913,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25">
@@ -2942,7 +2933,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="78" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -2956,23 +2947,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
       <c r="A10" s="198" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B10" s="198"/>
       <c r="C10" s="198"/>
@@ -2986,12 +2977,12 @@
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
       <c r="A11" s="199" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="199"/>
       <c r="C11" s="199"/>
       <c r="D11" s="200" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E11" s="200"/>
       <c r="F11" s="200"/>
@@ -3008,57 +2999,57 @@
         <v>10</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="48.75" customHeight="1">
       <c r="A13" s="59" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D13" s="14">
         <v>1</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J13" s="13">
         <v>2</v>
@@ -3072,22 +3063,22 @@
         <v>2</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="J14" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1">
@@ -3098,46 +3089,46 @@
         <v>10</v>
       </c>
       <c r="C15" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="47" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" s="47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H15" s="47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J15" s="47" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1">
       <c r="A16" s="59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C16" s="59" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
@@ -3149,11 +3140,11 @@
       <c r="B17" s="202"/>
       <c r="C17" s="203"/>
       <c r="D17" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11"/>
@@ -3208,7 +3199,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -3229,7 +3220,7 @@
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
@@ -3242,7 +3233,7 @@
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1">
       <c r="A6" s="209" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="209" t="s">
         <v>3</v>
@@ -3251,16 +3242,16 @@
         <v>5</v>
       </c>
       <c r="D6" s="209" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E6" s="209" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G6" s="206" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H6" s="207"/>
       <c r="I6" s="208"/>
@@ -3273,13 +3264,13 @@
       <c r="E7" s="209"/>
       <c r="F7" s="209"/>
       <c r="G7" s="87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H7" s="87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I7" s="87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="33.75" customHeight="1">
@@ -3291,7 +3282,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -3304,7 +3295,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -3361,7 +3352,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="23.25">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4"/>
       <c r="E1" s="4"/>
@@ -3387,7 +3378,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="79"/>
@@ -3404,7 +3395,7 @@
     <row r="6" spans="1:12" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:12" ht="15.75">
       <c r="A7" s="209" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="209" t="s">
         <v>3</v>
@@ -3413,25 +3404,25 @@
         <v>5</v>
       </c>
       <c r="D7" s="212" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E7" s="212" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F7" s="210" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G7" s="210" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H7" s="209" t="s">
         <v>9</v>
       </c>
       <c r="I7" s="209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J7" s="206" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K7" s="207"/>
       <c r="L7" s="208"/>
@@ -3447,13 +3438,13 @@
       <c r="H8" s="209"/>
       <c r="I8" s="209"/>
       <c r="J8" s="87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K8" s="87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L8" s="87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -3468,7 +3459,7 @@
       <c r="I9" s="15"/>
       <c r="J9" s="15"/>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L9" s="2"/>
     </row>
@@ -3484,7 +3475,7 @@
       <c r="I10" s="15"/>
       <c r="J10" s="15"/>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L10" s="2"/>
     </row>
@@ -3549,7 +3540,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -3569,7 +3560,7 @@
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="79"/>
@@ -3583,7 +3574,7 @@
     <row r="6" spans="1:9" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="209" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="209" t="s">
         <v>3</v>
@@ -3592,16 +3583,16 @@
         <v>5</v>
       </c>
       <c r="D7" s="212" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E7" s="209" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="209" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G7" s="206" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H7" s="207"/>
       <c r="I7" s="208"/>
@@ -3614,13 +3605,13 @@
       <c r="E8" s="209"/>
       <c r="F8" s="209"/>
       <c r="G8" s="87" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H8" s="87" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I8" s="87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3697,7 +3688,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="23.25" customHeight="1">
@@ -3707,7 +3698,7 @@
       </c>
       <c r="B3" s="52"/>
       <c r="C3" s="124" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D3" s="125"/>
       <c r="E3" s="125"/>
@@ -3715,7 +3706,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" s="81"/>
       <c r="C4" s="127"/>
@@ -3737,45 +3728,45 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G7" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="19" t="s">
         <v>113</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -3783,7 +3774,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -3795,16 +3786,16 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B10" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -3829,22 +3820,22 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="E14" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="F14" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>69</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -3855,48 +3846,48 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="I15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="L15" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="2"/>
@@ -3921,51 +3912,51 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D19" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>358</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>361</v>
       </c>
       <c r="F19" s="23"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="E20" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="F20" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="13"/>
@@ -3973,36 +3964,36 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B26" s="97"/>
       <c r="C26" s="98"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -4022,7 +4013,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B29" s="122"/>
       <c r="C29" s="123"/>
@@ -4042,28 +4033,28 @@
         <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="H30" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>14</v>
@@ -4072,10 +4063,10 @@
         <v>16</v>
       </c>
       <c r="L30" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -4089,13 +4080,13 @@
         <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -4107,7 +4098,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="21" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="35"/>
@@ -4118,30 +4109,30 @@
         <v>10</v>
       </c>
       <c r="B34" s="23" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="C35" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B37" s="134"/>
       <c r="C37" s="135"/>
@@ -4157,36 +4148,36 @@
         <v>10</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D38" t="s">
         <v>222</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" t="s">
         <v>223</v>
       </c>
-      <c r="D38" t="s">
-        <v>224</v>
-      </c>
-      <c r="E38" t="s">
-        <v>225</v>
-      </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H38" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4196,7 +4187,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B42" s="120"/>
       <c r="C42" s="121"/>
@@ -4210,27 +4201,27 @@
         <v>10</v>
       </c>
       <c r="B43" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="C43" s="57" t="s">
+      <c r="E43" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="D43" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="E43" s="57" t="s">
-        <v>162</v>
-      </c>
       <c r="F43" s="57" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G43" s="57" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B45" s="122"/>
       <c r="C45" s="123"/>
@@ -4242,18 +4233,18 @@
         <v>10</v>
       </c>
       <c r="B46" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="D46" s="57" t="s">
         <v>164</v>
-      </c>
-      <c r="C46" s="57" t="s">
-        <v>165</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="66" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B48" s="67"/>
       <c r="C48" s="67"/>
@@ -4265,7 +4256,7 @@
         <v>3</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>4</v>
@@ -4274,12 +4265,12 @@
         <v>5</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:11">
       <c r="A50" s="130" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B50" s="131"/>
       <c r="C50" s="131"/>
@@ -4292,13 +4283,13 @@
         <v>0</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4307,13 +4298,13 @@
         <v>1</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4322,10 +4313,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>15</v>
@@ -4334,7 +4325,7 @@
     <row r="54" spans="1:11">
       <c r="A54" s="2"/>
       <c r="B54" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -4342,7 +4333,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B55" s="131"/>
       <c r="C55" s="131"/>
@@ -4351,7 +4342,7 @@
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -4367,7 +4358,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="21" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="35"/>
@@ -4377,23 +4368,23 @@
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E60" s="13"/>
       <c r="F60" s="13"/>
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="21" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B62" s="34"/>
       <c r="C62" s="35"/>
@@ -4411,58 +4402,58 @@
         <v>10</v>
       </c>
       <c r="B63" s="23" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C63" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E63" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="D63" s="23" t="s">
-        <v>228</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="F63" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>329</v>
+      </c>
+      <c r="H63" s="23" t="s">
         <v>330</v>
-      </c>
-      <c r="F63" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="G63" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>333</v>
       </c>
       <c r="I63" s="23"/>
       <c r="J63" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K63" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="64" spans="1:11">
       <c r="A64" s="22" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E64" s="23" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
@@ -4470,28 +4461,28 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B65" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="E65" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="D65" s="23" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="23" t="s">
-        <v>236</v>
-      </c>
       <c r="F65" s="23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H65" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
@@ -4499,25 +4490,25 @@
     </row>
     <row r="66" spans="1:11">
       <c r="A66" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F66" s="13"/>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="21" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="35"/>
@@ -4532,59 +4523,59 @@
         <v>10</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D69" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="E69" s="23" t="s">
+        <v>318</v>
+      </c>
+      <c r="F69" s="23" t="s">
+        <v>319</v>
+      </c>
+      <c r="G69" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="E69" s="23" t="s">
-        <v>321</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>322</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>323</v>
-      </c>
       <c r="H69" s="23" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" s="20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B70" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="35"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="22" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B74" s="23" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4624,7 +4615,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="7.5" customHeight="1">
@@ -4637,7 +4628,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="136" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" s="214"/>
       <c r="F3" s="50"/>
@@ -4645,7 +4636,7 @@
     </row>
     <row r="4" spans="1:7" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="136"/>
@@ -4658,7 +4649,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
       <c r="A6" s="217" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B6" s="217"/>
       <c r="C6" s="217"/>
@@ -4667,7 +4658,7 @@
     </row>
     <row r="7" spans="1:7" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>3</v>
@@ -4678,13 +4669,13 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1">
@@ -4694,7 +4685,7 @@
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
       <c r="A10" s="215" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B10" s="215"/>
       <c r="C10" s="215"/>
@@ -4705,7 +4696,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75">
       <c r="A11" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" s="27" t="s">
         <v>3</v>
@@ -4714,51 +4705,51 @@
         <v>5</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B13" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>254</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>256</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B14" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>257</v>
       </c>
       <c r="D14" s="12" t="str">
         <f t="shared" ref="D14:D15" si="0">$A$12</f>
@@ -4768,13 +4759,13 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C15" s="12" t="s">
         <v>258</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="D15" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4827,7 +4818,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -4848,7 +4839,7 @@
     </row>
     <row r="3" spans="1:9" ht="23.25">
       <c r="A3" s="144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B3" s="144"/>
       <c r="C3" s="144"/>
@@ -4862,7 +4853,7 @@
     <row r="4" spans="1:9" ht="29.25" customHeight="1"/>
     <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="27" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>3</v>
@@ -4871,10 +4862,10 @@
         <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F5" s="27" t="s">
         <v>0</v>
@@ -4883,37 +4874,37 @@
         <v>1</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
       <c r="A6" s="140" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" s="140" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C6" s="140" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="140" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E6" s="140"/>
       <c r="F6" s="137" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G6" s="140" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
@@ -4925,10 +4916,10 @@
       <c r="F7" s="138"/>
       <c r="G7" s="141"/>
       <c r="H7" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
@@ -4940,37 +4931,37 @@
       <c r="F8" s="139"/>
       <c r="G8" s="142"/>
       <c r="H8" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="A9" s="140" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B9" s="140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C9" s="140" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D9" s="140" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9" s="140"/>
       <c r="F9" s="137" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G9" s="140" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
@@ -4982,7 +4973,7 @@
       <c r="F10" s="138"/>
       <c r="G10" s="141"/>
       <c r="H10" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="16"/>
     </row>
@@ -4995,34 +4986,34 @@
       <c r="F11" s="139"/>
       <c r="G11" s="142"/>
       <c r="H11" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="140" t="s">
+        <v>266</v>
+      </c>
+      <c r="C12" s="140" t="s">
+        <v>241</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="140" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="137" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="140" t="s">
         <v>240</v>
       </c>
-      <c r="B12" s="140" t="s">
-        <v>268</v>
-      </c>
-      <c r="C12" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="140" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="140" t="s">
-        <v>241</v>
-      </c>
-      <c r="F12" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="140" t="s">
-        <v>242</v>
-      </c>
       <c r="H12" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="16"/>
     </row>
@@ -5035,7 +5026,7 @@
       <c r="F13" s="138"/>
       <c r="G13" s="141"/>
       <c r="H13" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I13" s="16"/>
     </row>
@@ -5048,7 +5039,7 @@
       <c r="F14" s="139"/>
       <c r="G14" s="142"/>
       <c r="H14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I14" s="16"/>
     </row>
@@ -5131,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="4"/>
     </row>
@@ -5149,7 +5140,7 @@
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
       <c r="A4" s="144" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="144"/>
@@ -5160,7 +5151,7 @@
     <row r="5" spans="1:6" ht="29.25" customHeight="1"/>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>3</v>
@@ -5169,66 +5160,66 @@
         <v>5</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="F6" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18.75" customHeight="1">
       <c r="A7" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>105</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="26"/>
     </row>
     <row r="8" spans="1:6" ht="37.5" customHeight="1">
       <c r="A8" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>106</v>
-      </c>
       <c r="C8" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F8" s="26"/>
     </row>
     <row r="9" spans="1:6" ht="37.5" customHeight="1">
       <c r="A9" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" s="26"/>
     </row>
@@ -5259,7 +5250,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
@@ -5278,7 +5269,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B1" s="44"/>
     </row>
@@ -5297,7 +5288,7 @@
     </row>
     <row r="4" spans="1:14" ht="23.25">
       <c r="A4" s="144" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="144"/>
@@ -5311,7 +5302,7 @@
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
       <c r="A6" s="159" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B6" s="159"/>
       <c r="C6" s="158"/>
@@ -5320,7 +5311,7 @@
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
       <c r="A7" s="160" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B7" s="160"/>
       <c r="C7" s="158"/>
@@ -5330,7 +5321,7 @@
     <row r="8" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="9" spans="1:14" ht="33.75" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B9" s="88" t="s">
         <v>3</v>
@@ -5339,10 +5330,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="88" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E9" s="88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F9" s="153"/>
       <c r="G9" s="154"/>
@@ -5352,7 +5343,7 @@
       <c r="B10" s="146"/>
       <c r="C10" s="147"/>
       <c r="D10" s="155" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="156"/>
       <c r="F10" s="156"/>
@@ -5363,33 +5354,33 @@
       <c r="B11" s="149"/>
       <c r="C11" s="150"/>
       <c r="D11" s="86" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E11" s="86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F11" s="86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G11" s="86" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="50.25" customHeight="1">
       <c r="A12" s="110" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D12" s="110" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E12" s="110" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F12" s="106"/>
       <c r="G12" s="106"/>
@@ -5399,19 +5390,19 @@
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E13" s="43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="22.5" customHeight="1">
@@ -5419,31 +5410,31 @@
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="43" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="44.25" customHeight="1">
       <c r="A15" s="110" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B15" s="110"/>
       <c r="C15" s="110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" s="110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F15" s="106"/>
       <c r="G15" s="106"/>
@@ -5461,11 +5452,11 @@
       <c r="D16" s="16"/>
       <c r="E16" s="43"/>
       <c r="F16" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="22.5" customHeight="1">
@@ -5475,23 +5466,23 @@
       <c r="D17" s="16"/>
       <c r="E17" s="43"/>
       <c r="F17" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="16"/>
     </row>
     <row r="18" spans="1:7" ht="18.75" customHeight="1">
       <c r="A18" s="110" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B18" s="110"/>
       <c r="C18" s="110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D18" s="110" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E18" s="110" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="151"/>
       <c r="G18" s="152"/>
@@ -5535,8 +5526,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5556,7 +5547,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="13.5" customHeight="1">
@@ -5581,7 +5572,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="144" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="144"/>
@@ -5600,12 +5591,12 @@
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1">
       <c r="A6" s="94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="13.5" customHeight="1">
       <c r="A7" s="107" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C7" s="158"/>
       <c r="D7" s="158"/>
@@ -5613,7 +5604,7 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C8" s="158"/>
       <c r="D8" s="158"/>
@@ -5627,7 +5618,7 @@
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1">
       <c r="A10" s="99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="100"/>
       <c r="C10" s="100"/>
@@ -5643,7 +5634,7 @@
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="95" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B11" s="95" t="s">
         <v>3</v>
@@ -5655,7 +5646,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="101" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F11" s="170"/>
       <c r="G11" s="170"/>
@@ -5667,7 +5658,7 @@
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="D12" s="176" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E12" s="177"/>
       <c r="F12" s="177"/>
@@ -5680,7 +5671,7 @@
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>3</v>
@@ -5692,24 +5683,24 @@
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J13" s="10" t="s">
         <v>11</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
       <c r="D14" s="176" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E14" s="177"/>
       <c r="F14" s="177"/>
@@ -5722,13 +5713,13 @@
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G15" s="179"/>
       <c r="H15" s="180"/>
@@ -5739,7 +5730,7 @@
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
       <c r="D16" s="176" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E16" s="177"/>
       <c r="F16" s="177"/>
@@ -5752,10 +5743,10 @@
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E17" s="173" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F17" s="174"/>
       <c r="G17" s="174"/>
@@ -5767,19 +5758,19 @@
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="106" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="B18" s="107" t="s">
+        <v>175</v>
+      </c>
+      <c r="C18" s="108" t="s">
         <v>177</v>
       </c>
-      <c r="C18" s="108" t="s">
-        <v>179</v>
-      </c>
       <c r="D18" s="106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E18" s="109" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F18" s="151"/>
       <c r="G18" s="162"/>
@@ -5793,16 +5784,16 @@
       <c r="A19" s="165"/>
       <c r="B19" s="165"/>
       <c r="C19" s="161" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>14</v>
@@ -5815,13 +5806,13 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M19" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
@@ -5829,16 +5820,16 @@
       <c r="B20" s="172"/>
       <c r="C20" s="161"/>
       <c r="D20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H20" s="25"/>
       <c r="I20" s="25">
@@ -5846,10 +5837,10 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
@@ -5857,25 +5848,25 @@
       <c r="B21" s="172"/>
       <c r="C21" s="161"/>
       <c r="D21" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H21" s="25"/>
       <c r="I21" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
@@ -5883,40 +5874,40 @@
       <c r="B22" s="172"/>
       <c r="C22" s="161"/>
       <c r="D22" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H22" s="25">
         <v>10.199999999999999</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
       <c r="A23" s="172"/>
       <c r="B23" s="172"/>
       <c r="C23" s="161" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F23" s="25">
         <v>1</v>
@@ -5928,7 +5919,7 @@
       <c r="K23" s="161"/>
       <c r="L23" s="161"/>
       <c r="M23" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
@@ -5936,10 +5927,10 @@
       <c r="B24" s="172"/>
       <c r="C24" s="161"/>
       <c r="D24" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F24" s="25">
         <v>1</v>
@@ -5956,10 +5947,10 @@
       <c r="B25" s="172"/>
       <c r="C25" s="161"/>
       <c r="D25" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F25" s="25">
         <v>1</v>
@@ -5975,13 +5966,13 @@
       <c r="A26" s="172"/>
       <c r="B26" s="172"/>
       <c r="C26" s="165" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E26" s="167" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F26" s="168"/>
       <c r="G26" s="168"/>
@@ -5991,7 +5982,7 @@
       <c r="K26" s="168"/>
       <c r="L26" s="169"/>
       <c r="M26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
@@ -5999,10 +5990,10 @@
       <c r="B27" s="166"/>
       <c r="C27" s="166"/>
       <c r="D27" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E27" s="167" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F27" s="168"/>
       <c r="G27" s="168"/>
@@ -6028,19 +6019,19 @@
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="106" t="s">
-        <v>18</v>
+        <v>300</v>
       </c>
       <c r="B29" s="107" t="s">
+        <v>176</v>
+      </c>
+      <c r="C29" s="108" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="108" t="s">
-        <v>180</v>
-      </c>
       <c r="D29" s="106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E29" s="109" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F29" s="151"/>
       <c r="G29" s="162"/>
@@ -6052,16 +6043,16 @@
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="C30" s="161" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>14</v>
@@ -6072,25 +6063,25 @@
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
       <c r="C31" s="161"/>
       <c r="D31" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25">
@@ -6098,75 +6089,75 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
       <c r="C32" s="161"/>
       <c r="D32" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H32" s="25"/>
       <c r="I32" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
       <c r="C33" s="161"/>
       <c r="D33" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H33" s="25"/>
       <c r="I33" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
       <c r="A35" s="106" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B35" s="107" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C35" s="108" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D35" s="106" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" s="109" t="s">
         <v>292</v>
-      </c>
-      <c r="E35" s="109" t="s">
-        <v>294</v>
       </c>
       <c r="F35" s="151"/>
       <c r="G35" s="162"/>
@@ -6178,16 +6169,16 @@
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="C36" s="161" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>14</v>
@@ -6198,25 +6189,25 @@
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
       <c r="C37" s="161"/>
       <c r="D37" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H37" s="25"/>
       <c r="I37" s="25">
@@ -6224,69 +6215,69 @@
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
       <c r="C38" s="161"/>
       <c r="D38" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F38" s="2"/>
       <c r="G38" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H38" s="25"/>
       <c r="I38" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
       <c r="C39" s="161"/>
       <c r="D39" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H39" s="25"/>
       <c r="I39" s="25" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
       <c r="C40" s="161" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F40" s="25">
         <v>1</v>
@@ -6301,10 +6292,10 @@
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
       <c r="C41" s="161"/>
       <c r="D41" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F41" s="25">
         <v>1</v>
@@ -6319,10 +6310,10 @@
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
       <c r="C42" s="161"/>
       <c r="D42" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F42" s="25">
         <v>1</v>
@@ -6392,10 +6383,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:F9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6412,7 +6403,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="7.5" customHeight="1"/>
@@ -6432,7 +6423,7 @@
     </row>
     <row r="4" spans="1:9" ht="20.25" customHeight="1">
       <c r="A4" s="75" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="79"/>
@@ -6446,19 +6437,19 @@
     <row r="5" spans="1:9" ht="10.5" customHeight="1"/>
     <row r="6" spans="1:9" s="103" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="182"/>
     </row>
     <row r="7" spans="1:9" s="103" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" s="182"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="186" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="186"/>
       <c r="C9" s="186"/>
@@ -6468,7 +6459,7 @@
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="8" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>3</v>
@@ -6477,168 +6468,150 @@
         <v>5</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="A11" s="25" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F11" s="25" t="str">
         <f>A12</f>
         <v>UOperator</v>
       </c>
       <c r="G11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="A12" s="25" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C12" s="26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1">
       <c r="A13" s="25" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C13" s="26"/>
       <c r="D13" s="25" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="15" customHeight="1">
-      <c r="A14" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="37.5" customHeight="1">
-      <c r="A15" s="89"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="91"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="183" t="s">
-        <v>122</v>
-      </c>
-      <c r="B16" s="184"/>
-      <c r="C16" s="184"/>
-      <c r="D16" s="184"/>
-      <c r="E16" s="184"/>
-      <c r="F16" s="185"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75">
-      <c r="A17" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B17" s="8" t="s">
+    <row r="14" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="91"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="183" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="185"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
+      <c r="A16" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="D16" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>282</v>
+      <c r="F17" s="57"/>
+      <c r="G17" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="25" t="s">
-        <v>286</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>155</v>
-      </c>
+      <c r="A18" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="13"/>
       <c r="D18" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="E18" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F18" s="57"/>
-      <c r="G18" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="25" t="s">
-        <v>214</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A15:F15"/>
     <mergeCell ref="A9:F9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D20 D11:D15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D18 D11:D14">
       <formula1>ActorType</formula1>
     </dataValidation>
   </dataValidations>
@@ -6677,7 +6650,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="8.25" customHeight="1"/>
@@ -6705,7 +6678,7 @@
     </row>
     <row r="4" spans="1:17" ht="23.25">
       <c r="A4" s="144" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="144"/>
@@ -6726,17 +6699,17 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="106" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1">
       <c r="A9" s="195" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B9" s="196"/>
       <c r="C9" s="196"/>
@@ -6757,7 +6730,7 @@
     </row>
     <row r="10" spans="1:17" ht="33" customHeight="1">
       <c r="A10" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" s="188" t="s">
         <v>3</v>
@@ -6766,33 +6739,33 @@
         <v>5</v>
       </c>
       <c r="D10" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E10" s="192" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F10" s="194"/>
       <c r="G10" s="193"/>
       <c r="H10" s="188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I10" s="190" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J10" s="191"/>
       <c r="K10" s="192" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L10" s="193"/>
       <c r="M10" s="192" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N10" s="193"/>
       <c r="O10" s="111" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P10" s="187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q10" s="187"/>
     </row>
@@ -6802,32 +6775,32 @@
       <c r="C11" s="189"/>
       <c r="D11" s="189"/>
       <c r="E11" s="114" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F11" s="114" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G11" s="114" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H11" s="189"/>
       <c r="I11" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="J11" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" s="111" t="s">
+        <v>337</v>
+      </c>
+      <c r="L11" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="M11" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="N11" s="111" t="s">
         <v>203</v>
-      </c>
-      <c r="J11" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="L11" s="112" t="s">
-        <v>341</v>
-      </c>
-      <c r="M11" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="N11" s="111" t="s">
-        <v>205</v>
       </c>
       <c r="O11" s="111"/>
       <c r="P11" s="113" t="s">
@@ -6839,81 +6812,81 @@
     </row>
     <row r="12" spans="1:17" ht="107.25" customHeight="1">
       <c r="A12" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="B12" s="61" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="61" t="s">
-        <v>186</v>
-      </c>
       <c r="C12" s="65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D12" s="61" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
       <c r="I12" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="J12" s="55" t="s">
+      <c r="K12" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M12" s="55" t="s">
         <v>190</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" s="55" t="s">
-        <v>192</v>
-      </c>
       <c r="N12" s="55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O12" s="55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P12" s="119" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="47.25" customHeight="1">
       <c r="A13" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="118" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="118" t="s">
-        <v>187</v>
-      </c>
       <c r="C13" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="65" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="65" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J13" s="16"/>
       <c r="K13" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="16"/>
@@ -6942,7 +6915,7 @@
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
       <c r="A15" s="195" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B15" s="196"/>
       <c r="C15" s="196"/>
@@ -6963,7 +6936,7 @@
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1">
       <c r="A16" s="188" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B16" s="188" t="s">
         <v>3</v>
@@ -6972,33 +6945,33 @@
         <v>5</v>
       </c>
       <c r="D16" s="188" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E16" s="192" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F16" s="194"/>
       <c r="G16" s="193"/>
       <c r="H16" s="188" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="190" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J16" s="191"/>
       <c r="K16" s="192" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L16" s="193"/>
       <c r="M16" s="192" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="N16" s="193"/>
       <c r="O16" s="111" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="P16" s="187" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="187"/>
     </row>
@@ -7008,32 +6981,32 @@
       <c r="C17" s="189"/>
       <c r="D17" s="189"/>
       <c r="E17" s="114" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F17" s="114" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="G17" s="114" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="H17" s="189"/>
       <c r="I17" s="112" t="s">
+        <v>201</v>
+      </c>
+      <c r="J17" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="111" t="s">
+        <v>337</v>
+      </c>
+      <c r="L17" s="112" t="s">
+        <v>338</v>
+      </c>
+      <c r="M17" s="111" t="s">
+        <v>202</v>
+      </c>
+      <c r="N17" s="111" t="s">
         <v>203</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>34</v>
-      </c>
-      <c r="K17" s="111" t="s">
-        <v>340</v>
-      </c>
-      <c r="L17" s="112" t="s">
-        <v>341</v>
-      </c>
-      <c r="M17" s="111" t="s">
-        <v>204</v>
-      </c>
-      <c r="N17" s="111" t="s">
-        <v>205</v>
       </c>
       <c r="O17" s="111"/>
       <c r="P17" s="113" t="s">
@@ -7045,7 +7018,7 @@
     </row>
     <row r="18" spans="1:17" ht="21" customHeight="1">
       <c r="A18" s="65" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="62"/>

--- a/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
@@ -1084,9 +1084,6 @@
     <t>Attributes</t>
   </si>
   <si>
-    <t xml:space="preserve">Attributes </t>
-  </si>
-  <si>
     <t>ForeignKeys</t>
   </si>
   <si>
@@ -1277,6 +1274,9 @@
   </si>
   <si>
     <t>P1</t>
+  </si>
+  <si>
+    <t>Checks</t>
   </si>
 </sst>
 </file>
@@ -1449,7 +1449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1617,12 +1617,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -2008,9 +2017,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2035,9 +2041,6 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2172,6 +2175,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2571,12 +2583,12 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="44" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="44" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2645,7 +2657,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="78" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -2674,33 +2686,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="196" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
       <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200" t="s">
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
       <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -2768,9 +2780,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
+      <c r="A14" s="199"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="14">
         <v>2</v>
       </c>
@@ -2848,9 +2860,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="203"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
       <c r="D17" s="14" t="s">
         <v>144</v>
       </c>
@@ -2933,7 +2945,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25">
       <c r="A4" s="78" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B4" s="78"/>
       <c r="C4" s="78"/>
@@ -2962,33 +2974,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="198" t="s">
+      <c r="A10" s="196" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="198"/>
-      <c r="D10" s="198"/>
-      <c r="E10" s="198"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="198"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="198"/>
+      <c r="B10" s="196"/>
+      <c r="C10" s="196"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="196"/>
+      <c r="G10" s="196"/>
+      <c r="H10" s="196"/>
+      <c r="I10" s="196"/>
       <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="199" t="s">
+      <c r="A11" s="197" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="199"/>
-      <c r="C11" s="199"/>
-      <c r="D11" s="200" t="s">
+      <c r="B11" s="197"/>
+      <c r="C11" s="197"/>
+      <c r="D11" s="198" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
+      <c r="E11" s="198"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="198"/>
+      <c r="H11" s="198"/>
+      <c r="I11" s="198"/>
       <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -3056,9 +3068,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="201"/>
-      <c r="B14" s="202"/>
-      <c r="C14" s="203"/>
+      <c r="A14" s="199"/>
+      <c r="B14" s="200"/>
+      <c r="C14" s="201"/>
       <c r="D14" s="14">
         <v>2</v>
       </c>
@@ -3136,9 +3148,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="201"/>
-      <c r="B17" s="202"/>
-      <c r="C17" s="203"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="200"/>
+      <c r="C17" s="201"/>
       <c r="D17" s="14" t="s">
         <v>144</v>
       </c>
@@ -3212,11 +3224,11 @@
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="54"/>
-      <c r="E3" s="204"/>
-      <c r="F3" s="204"/>
-      <c r="G3" s="204"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
+      <c r="E3" s="202"/>
+      <c r="F3" s="202"/>
+      <c r="G3" s="202"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
@@ -3225,44 +3237,44 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="80"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="203"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A6" s="209" t="s">
+      <c r="A6" s="207" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="209" t="s">
+      <c r="C6" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="209" t="s">
+      <c r="D6" s="207" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="209" t="s">
+      <c r="E6" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="209" t="s">
+      <c r="F6" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="206" t="s">
+      <c r="G6" s="204" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="207"/>
-      <c r="I6" s="208"/>
+      <c r="H6" s="205"/>
+      <c r="I6" s="206"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="209"/>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
+      <c r="A7" s="207"/>
+      <c r="B7" s="207"/>
+      <c r="C7" s="207"/>
+      <c r="D7" s="207"/>
+      <c r="E7" s="207"/>
+      <c r="F7" s="207"/>
       <c r="G7" s="87" t="s">
         <v>251</v>
       </c>
@@ -3373,12 +3385,12 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
-      <c r="K3" s="204"/>
-      <c r="L3" s="204"/>
+      <c r="K3" s="202"/>
+      <c r="L3" s="202"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="75" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="79"/>
@@ -3389,54 +3401,54 @@
       <c r="H4" s="80"/>
       <c r="I4" s="80"/>
       <c r="J4" s="80"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="207" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="212" t="s">
+      <c r="D7" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="212" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" s="210" t="s">
+      <c r="E7" s="210" t="s">
+        <v>345</v>
+      </c>
+      <c r="F7" s="208" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="210" t="s">
+      <c r="G7" s="208" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="209" t="s">
+      <c r="H7" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="209" t="s">
+      <c r="I7" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="J7" s="206" t="s">
+      <c r="J7" s="204" t="s">
         <v>273</v>
       </c>
-      <c r="K7" s="207"/>
-      <c r="L7" s="208"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="206"/>
     </row>
     <row r="8" spans="1:12" ht="31.5">
-      <c r="A8" s="209"/>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="211"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="211"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="207"/>
+      <c r="I8" s="207"/>
       <c r="J8" s="87" t="s">
         <v>251</v>
       </c>
@@ -3555,8 +3567,8 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="H3" s="204"/>
-      <c r="I3" s="204"/>
+      <c r="H3" s="202"/>
+      <c r="I3" s="202"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
@@ -3568,42 +3580,42 @@
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
+      <c r="H4" s="203"/>
+      <c r="I4" s="203"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="207" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="207" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="209" t="s">
+      <c r="C7" s="207" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="212" t="s">
+      <c r="D7" s="210" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="209" t="s">
+      <c r="E7" s="207" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="209" t="s">
+      <c r="F7" s="207" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="206" t="s">
+      <c r="G7" s="204" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="207"/>
-      <c r="I7" s="208"/>
+      <c r="H7" s="205"/>
+      <c r="I7" s="206"/>
     </row>
     <row r="8" spans="1:9" ht="31.5">
-      <c r="A8" s="209"/>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="213"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="207"/>
+      <c r="C8" s="207"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="207"/>
+      <c r="F8" s="207"/>
       <c r="G8" s="87" t="s">
         <v>251</v>
       </c>
@@ -3915,16 +3927,16 @@
         <v>78</v>
       </c>
       <c r="B19" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>355</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>354</v>
+      </c>
+      <c r="E19" s="23" t="s">
         <v>357</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>358</v>
       </c>
       <c r="F19" s="23"/>
     </row>
@@ -4358,7 +4370,7 @@
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B59" s="34"/>
       <c r="C59" s="35"/>
@@ -4374,7 +4386,7 @@
         <v>79</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>82</v>
@@ -4384,7 +4396,7 @@
     </row>
     <row r="62" spans="1:11">
       <c r="A62" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B62" s="34"/>
       <c r="C62" s="35"/>
@@ -4405,22 +4417,22 @@
         <v>229</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D63" s="23" t="s">
         <v>226</v>
       </c>
       <c r="E63" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="F63" s="23" t="s">
         <v>327</v>
       </c>
-      <c r="F63" s="23" t="s">
+      <c r="G63" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="H63" s="23" t="s">
         <v>329</v>
-      </c>
-      <c r="H63" s="23" t="s">
-        <v>330</v>
       </c>
       <c r="I63" s="23"/>
       <c r="J63" s="23" t="s">
@@ -4435,19 +4447,19 @@
         <v>224</v>
       </c>
       <c r="B64" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="C64" s="23" t="s">
-        <v>326</v>
-      </c>
       <c r="D64" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E64" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="E64" s="23" t="s">
+      <c r="F64" s="23" t="s">
         <v>322</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>323</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>33</v>
@@ -4496,7 +4508,7 @@
         <v>79</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D66" s="13" t="s">
         <v>82</v>
@@ -4508,7 +4520,7 @@
     </row>
     <row r="68" spans="1:11">
       <c r="A68" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B68" s="34"/>
       <c r="C68" s="35"/>
@@ -4529,19 +4541,19 @@
         <v>228</v>
       </c>
       <c r="D69" s="23" t="s">
+        <v>316</v>
+      </c>
+      <c r="E69" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="E69" s="23" t="s">
+      <c r="F69" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="F69" s="23" t="s">
+      <c r="G69" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="23" t="s">
-        <v>320</v>
-      </c>
       <c r="H69" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4552,7 +4564,7 @@
         <v>79</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D70" s="13" t="s">
         <v>82</v>
@@ -4562,20 +4574,20 @@
     </row>
     <row r="73" spans="1:11">
       <c r="A73" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B73" s="34"/>
       <c r="C73" s="35"/>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="B74" s="23" t="s">
         <v>349</v>
       </c>
-      <c r="B74" s="23" t="s">
+      <c r="C74" s="23" t="s">
         <v>350</v>
-      </c>
-      <c r="C74" s="23" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4642,7 @@
       <c r="C3" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="214"/>
+      <c r="D3" s="212"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
@@ -4640,7 +4652,7 @@
       </c>
       <c r="B4" s="76"/>
       <c r="C4" s="136"/>
-      <c r="D4" s="214"/>
+      <c r="D4" s="212"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
     </row>
@@ -4648,11 +4660,11 @@
       <c r="A5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="217" t="s">
+      <c r="A6" s="215" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="217"/>
-      <c r="C6" s="217"/>
+      <c r="B6" s="215"/>
+      <c r="C6" s="215"/>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
     </row>
@@ -4669,7 +4681,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>245</v>
@@ -4679,18 +4691,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A9" s="214"/>
-      <c r="B9" s="214"/>
-      <c r="C9" s="214"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="212"/>
+      <c r="C9" s="212"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A10" s="215" t="s">
+      <c r="A10" s="213" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="215"/>
-      <c r="C10" s="215"/>
-      <c r="D10" s="215"/>
-      <c r="E10" s="216"/>
+      <c r="B10" s="213"/>
+      <c r="C10" s="213"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="214"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
     </row>
@@ -4723,7 +4735,7 @@
       </c>
       <c r="D12" s="45"/>
       <c r="E12" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4738,7 +4750,7 @@
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5526,8 +5538,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:L4"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36:C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5572,7 +5584,7 @@
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="144" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" s="144"/>
       <c r="C4" s="144"/>
@@ -5604,7 +5616,7 @@
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C8" s="158"/>
       <c r="D8" s="158"/>
@@ -5627,10 +5639,10 @@
       <c r="F10" s="100"/>
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
-      <c r="I10" s="171"/>
-      <c r="J10" s="171"/>
-      <c r="K10" s="171"/>
-      <c r="L10" s="171"/>
+      <c r="I10" s="170"/>
+      <c r="J10" s="170"/>
+      <c r="K10" s="170"/>
+      <c r="L10" s="170"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="95" t="s">
@@ -5648,26 +5660,26 @@
       <c r="E11" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="170"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
+      <c r="F11" s="169"/>
+      <c r="G11" s="169"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="169"/>
+      <c r="L11" s="169"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="176" t="s">
+      <c r="D12" s="174" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="177"/>
-      <c r="F12" s="177"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="177"/>
-      <c r="J12" s="177"/>
-      <c r="K12" s="177"/>
-      <c r="L12" s="178"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="175"/>
+      <c r="I12" s="175"/>
+      <c r="J12" s="175"/>
+      <c r="K12" s="175"/>
+      <c r="L12" s="176"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="10" t="s">
@@ -5699,66 +5711,66 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="176" t="s">
-        <v>296</v>
-      </c>
-      <c r="E14" s="177"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="177"/>
-      <c r="K14" s="177"/>
-      <c r="L14" s="178"/>
+      <c r="D14" s="174" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="175"/>
+      <c r="I14" s="175"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="175"/>
+      <c r="L14" s="176"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G15" s="179"/>
-      <c r="H15" s="180"/>
-      <c r="I15" s="180"/>
-      <c r="J15" s="180"/>
-      <c r="K15" s="180"/>
-      <c r="L15" s="181"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
+      <c r="I15" s="178"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="178"/>
+      <c r="L15" s="179"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="176" t="s">
-        <v>299</v>
-      </c>
-      <c r="E16" s="177"/>
-      <c r="F16" s="177"/>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
-      <c r="J16" s="177"/>
-      <c r="K16" s="177"/>
-      <c r="L16" s="178"/>
+      <c r="D16" s="174" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="175"/>
+      <c r="K16" s="175"/>
+      <c r="L16" s="176"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="173" t="s">
-        <v>301</v>
-      </c>
-      <c r="F17" s="174"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="175"/>
+      <c r="E17" s="171" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="172"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="172"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="173"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="106" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B18" s="107" t="s">
         <v>175</v>
@@ -5781,10 +5793,10 @@
       <c r="L18" s="152"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="165"/>
+      <c r="A19" s="219"/>
+      <c r="B19" s="216"/>
       <c r="C19" s="161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>179</v>
@@ -5806,18 +5818,18 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M19" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="172"/>
-      <c r="B20" s="172"/>
+      <c r="A20" s="219"/>
+      <c r="B20" s="217"/>
       <c r="C20" s="161"/>
       <c r="D20" s="2" t="s">
         <v>180</v>
@@ -5837,15 +5849,15 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="172"/>
-      <c r="B21" s="172"/>
+      <c r="A21" s="219"/>
+      <c r="B21" s="217"/>
       <c r="C21" s="161"/>
       <c r="D21" s="2" t="s">
         <v>244</v>
@@ -5863,21 +5875,21 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L21" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="172"/>
-      <c r="B22" s="172"/>
+      <c r="A22" s="219"/>
+      <c r="B22" s="217"/>
       <c r="C22" s="161"/>
       <c r="D22" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2" t="s">
@@ -5891,20 +5903,20 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L22" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="172"/>
-      <c r="B23" s="172"/>
+      <c r="A23" s="219"/>
+      <c r="B23" s="217"/>
       <c r="C23" s="161" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>180</v>
@@ -5923,11 +5935,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="172"/>
-      <c r="B24" s="172"/>
+      <c r="A24" s="219"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="161"/>
       <c r="D24" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>180</v>
@@ -5943,11 +5955,11 @@
       <c r="L24" s="161"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="172"/>
-      <c r="B25" s="172"/>
+      <c r="A25" s="219"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="161"/>
       <c r="D25" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>244</v>
@@ -5963,63 +5975,63 @@
       <c r="L25" s="161"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="172"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="165" t="s">
-        <v>299</v>
+      <c r="A26" s="219"/>
+      <c r="B26" s="217"/>
+      <c r="C26" s="164" t="s">
+        <v>359</v>
       </c>
       <c r="D26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E26" s="166" t="s">
         <v>308</v>
       </c>
-      <c r="E26" s="167" t="s">
-        <v>309</v>
-      </c>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="169"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="168"/>
       <c r="M26" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="166"/>
-      <c r="B27" s="166"/>
-      <c r="C27" s="166"/>
+      <c r="A27" s="219"/>
+      <c r="B27" s="217"/>
+      <c r="C27" s="165"/>
       <c r="D27" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27" s="166" t="s">
         <v>302</v>
       </c>
-      <c r="E27" s="167" t="s">
-        <v>303</v>
-      </c>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="169"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="168"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="163"/>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164"/>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="164"/>
-      <c r="H28" s="164"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="164"/>
-      <c r="K28" s="164"/>
-      <c r="L28" s="164"/>
+      <c r="A28" s="218"/>
+      <c r="B28" s="220"/>
+      <c r="C28" s="163"/>
+      <c r="D28" s="163"/>
+      <c r="E28" s="163"/>
+      <c r="F28" s="163"/>
+      <c r="G28" s="163"/>
+      <c r="H28" s="163"/>
+      <c r="I28" s="163"/>
+      <c r="J28" s="163"/>
+      <c r="K28" s="163"/>
+      <c r="L28" s="163"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="106" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" s="107" t="s">
         <v>176</v>
@@ -6043,7 +6055,7 @@
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
       <c r="C30" s="161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>179</v>
@@ -6063,10 +6075,10 @@
       </c>
       <c r="J30" s="25"/>
       <c r="K30" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L30" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
@@ -6089,10 +6101,10 @@
       </c>
       <c r="J31" s="25"/>
       <c r="K31" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L31" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
@@ -6113,19 +6125,19 @@
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
       <c r="C33" s="161"/>
       <c r="D33" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2" t="s">
@@ -6137,21 +6149,21 @@
       </c>
       <c r="J33" s="25"/>
       <c r="K33" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L33" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="18.75" customHeight="1">
       <c r="A35" s="106" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B35" s="107" t="s">
+        <v>309</v>
+      </c>
+      <c r="C35" s="108" t="s">
         <v>310</v>
-      </c>
-      <c r="C35" s="108" t="s">
-        <v>311</v>
       </c>
       <c r="D35" s="106" t="s">
         <v>290</v>
@@ -6169,7 +6181,7 @@
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
       <c r="C36" s="161" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>179</v>
@@ -6189,10 +6201,10 @@
       </c>
       <c r="J36" s="25"/>
       <c r="K36" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L36" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
@@ -6215,10 +6227,10 @@
       </c>
       <c r="J37" s="25"/>
       <c r="K37" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L37" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
@@ -6239,19 +6251,19 @@
       </c>
       <c r="J38" s="25"/>
       <c r="K38" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L38" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
       <c r="C39" s="161"/>
       <c r="D39" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2" t="s">
@@ -6263,18 +6275,18 @@
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L39" s="25" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
       <c r="C40" s="161" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>180</v>
@@ -6292,7 +6304,7 @@
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
       <c r="C41" s="161"/>
       <c r="D41" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>180</v>
@@ -6310,7 +6322,7 @@
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
       <c r="C42" s="161"/>
       <c r="D42" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>244</v>
@@ -6327,7 +6339,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="30">
+  <mergeCells count="28">
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="C30:C33"/>
@@ -6345,8 +6357,6 @@
     <mergeCell ref="E26:L26"/>
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="I10:L10"/>
-    <mergeCell ref="A19:A27"/>
-    <mergeCell ref="B19:B27"/>
     <mergeCell ref="E27:L27"/>
     <mergeCell ref="E17:L17"/>
     <mergeCell ref="C23:C25"/>
@@ -6359,7 +6369,7 @@
     <mergeCell ref="G41:L41"/>
     <mergeCell ref="G42:L42"/>
   </mergeCells>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
       <formula1>AttributeType</formula1>
     </dataValidation>
@@ -6377,6 +6387,7 @@
     <hyperlink ref="A1" location="Index" display="Back to Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6439,23 +6450,23 @@
       <c r="A6" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="182"/>
+      <c r="E6" s="180"/>
     </row>
     <row r="7" spans="1:9" s="103" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="182"/>
+      <c r="E7" s="180"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="184" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
+      <c r="B9" s="184"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="184"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="184"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="8" t="s">
@@ -6540,14 +6551,14 @@
       <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="183" t="s">
+      <c r="A15" s="181" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="184"/>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="184"/>
-      <c r="F15" s="185"/>
+      <c r="B15" s="182"/>
+      <c r="C15" s="182"/>
+      <c r="D15" s="182"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="183"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="8" t="s">
@@ -6592,10 +6603,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="25" t="s">
@@ -6708,82 +6719,82 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A9" s="195" t="s">
+      <c r="A9" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="196"/>
-      <c r="C9" s="196"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="197"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="194"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="194"/>
+      <c r="P9" s="194"/>
+      <c r="Q9" s="195"/>
     </row>
     <row r="10" spans="1:17" ht="33" customHeight="1">
-      <c r="A10" s="188" t="s">
+      <c r="A10" s="186" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="188" t="s">
+      <c r="B10" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="188" t="s">
+      <c r="C10" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="186" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="192" t="s">
-        <v>336</v>
-      </c>
-      <c r="F10" s="194"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="188" t="s">
+      <c r="E10" s="190" t="s">
+        <v>335</v>
+      </c>
+      <c r="F10" s="192"/>
+      <c r="G10" s="191"/>
+      <c r="H10" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="190" t="s">
-        <v>339</v>
-      </c>
-      <c r="J10" s="191"/>
-      <c r="K10" s="192" t="s">
+      <c r="I10" s="188" t="s">
+        <v>338</v>
+      </c>
+      <c r="J10" s="189"/>
+      <c r="K10" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="193"/>
-      <c r="M10" s="192" t="s">
+      <c r="L10" s="191"/>
+      <c r="M10" s="190" t="s">
+        <v>340</v>
+      </c>
+      <c r="N10" s="191"/>
+      <c r="O10" s="111" t="s">
+        <v>342</v>
+      </c>
+      <c r="P10" s="185" t="s">
         <v>341</v>
       </c>
-      <c r="N10" s="193"/>
-      <c r="O10" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="P10" s="187" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q10" s="187"/>
+      <c r="Q10" s="185"/>
     </row>
     <row r="11" spans="1:17" ht="33" customHeight="1">
-      <c r="A11" s="189"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
+      <c r="A11" s="187"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
       <c r="E11" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="F11" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="F11" s="114" t="s">
+      <c r="G11" s="114" t="s">
         <v>334</v>
       </c>
-      <c r="G11" s="114" t="s">
-        <v>335</v>
-      </c>
-      <c r="H11" s="189"/>
+      <c r="H11" s="187"/>
       <c r="I11" s="112" t="s">
         <v>201</v>
       </c>
@@ -6791,10 +6802,10 @@
         <v>32</v>
       </c>
       <c r="K11" s="111" t="s">
+        <v>336</v>
+      </c>
+      <c r="L11" s="112" t="s">
         <v>337</v>
-      </c>
-      <c r="L11" s="112" t="s">
-        <v>338</v>
       </c>
       <c r="M11" s="111" t="s">
         <v>202</v>
@@ -6824,10 +6835,10 @@
         <v>220</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G12" s="65"/>
       <c r="H12" s="65"/>
@@ -6871,11 +6882,11 @@
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F13" s="65"/>
       <c r="G13" s="65" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H13" s="16"/>
       <c r="I13" s="16" t="s">
@@ -6914,82 +6925,82 @@
       <c r="Q14" s="117"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
-      <c r="A15" s="195" t="s">
+      <c r="A15" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="196"/>
-      <c r="C15" s="196"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
-      <c r="I15" s="196"/>
-      <c r="J15" s="196"/>
-      <c r="K15" s="196"/>
-      <c r="L15" s="196"/>
-      <c r="M15" s="196"/>
-      <c r="N15" s="196"/>
-      <c r="O15" s="196"/>
-      <c r="P15" s="196"/>
-      <c r="Q15" s="197"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="194"/>
+      <c r="P15" s="194"/>
+      <c r="Q15" s="195"/>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1">
-      <c r="A16" s="188" t="s">
+      <c r="A16" s="186" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="188" t="s">
+      <c r="B16" s="186" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="188" t="s">
+      <c r="C16" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="188" t="s">
+      <c r="D16" s="186" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="192" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="194"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="188" t="s">
+      <c r="E16" s="190" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="192"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="190" t="s">
-        <v>339</v>
-      </c>
-      <c r="J16" s="191"/>
-      <c r="K16" s="192" t="s">
+      <c r="I16" s="188" t="s">
+        <v>338</v>
+      </c>
+      <c r="J16" s="189"/>
+      <c r="K16" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="L16" s="193"/>
-      <c r="M16" s="192" t="s">
+      <c r="L16" s="191"/>
+      <c r="M16" s="190" t="s">
+        <v>340</v>
+      </c>
+      <c r="N16" s="191"/>
+      <c r="O16" s="111" t="s">
+        <v>342</v>
+      </c>
+      <c r="P16" s="185" t="s">
         <v>341</v>
       </c>
-      <c r="N16" s="193"/>
-      <c r="O16" s="111" t="s">
-        <v>343</v>
-      </c>
-      <c r="P16" s="187" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q16" s="187"/>
+      <c r="Q16" s="185"/>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1">
-      <c r="A17" s="189"/>
-      <c r="B17" s="189"/>
-      <c r="C17" s="189"/>
-      <c r="D17" s="189"/>
+      <c r="A17" s="187"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
       <c r="E17" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="F17" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="F17" s="114" t="s">
+      <c r="G17" s="114" t="s">
         <v>334</v>
       </c>
-      <c r="G17" s="114" t="s">
-        <v>335</v>
-      </c>
-      <c r="H17" s="189"/>
+      <c r="H17" s="187"/>
       <c r="I17" s="112" t="s">
         <v>201</v>
       </c>
@@ -6997,10 +7008,10 @@
         <v>32</v>
       </c>
       <c r="K17" s="111" t="s">
+        <v>336</v>
+      </c>
+      <c r="L17" s="112" t="s">
         <v>337</v>
-      </c>
-      <c r="L17" s="112" t="s">
-        <v>338</v>
       </c>
       <c r="M17" s="111" t="s">
         <v>202</v>

--- a/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
@@ -2017,9 +2017,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2041,6 +2038,9 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2178,13 +2178,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -3683,8 +3679,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69:H69"/>
+    <sheetView topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4604,7 +4600,7 @@
     <hyperlink ref="A1" location="Index" display="Back to Index"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5538,8 +5534,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36:C39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5639,10 +5635,10 @@
       <c r="F10" s="100"/>
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="169"/>
+      <c r="K10" s="169"/>
+      <c r="L10" s="169"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="95" t="s">
@@ -5660,13 +5656,13 @@
       <c r="E11" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="169"/>
-      <c r="G11" s="169"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="169"/>
-      <c r="K11" s="169"/>
-      <c r="L11" s="169"/>
+      <c r="F11" s="168"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="168"/>
+      <c r="I11" s="168"/>
+      <c r="J11" s="168"/>
+      <c r="K11" s="168"/>
+      <c r="L11" s="168"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
       <c r="D12" s="174" t="s">
@@ -5793,7 +5789,7 @@
       <c r="L18" s="152"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="219"/>
+      <c r="A19" s="218"/>
       <c r="B19" s="216"/>
       <c r="C19" s="161" t="s">
         <v>294</v>
@@ -5828,7 +5824,7 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="219"/>
+      <c r="A20" s="218"/>
       <c r="B20" s="217"/>
       <c r="C20" s="161"/>
       <c r="D20" s="2" t="s">
@@ -5856,7 +5852,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="219"/>
+      <c r="A21" s="218"/>
       <c r="B21" s="217"/>
       <c r="C21" s="161"/>
       <c r="D21" s="2" t="s">
@@ -5882,7 +5878,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="219"/>
+      <c r="A22" s="218"/>
       <c r="B22" s="217"/>
       <c r="C22" s="161"/>
       <c r="D22" s="2" t="s">
@@ -5910,7 +5906,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="219"/>
+      <c r="A23" s="218"/>
       <c r="B23" s="217"/>
       <c r="C23" s="161" t="s">
         <v>295</v>
@@ -5935,7 +5931,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="219"/>
+      <c r="A24" s="218"/>
       <c r="B24" s="217"/>
       <c r="C24" s="161"/>
       <c r="D24" s="2" t="s">
@@ -5955,7 +5951,7 @@
       <c r="L24" s="161"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="219"/>
+      <c r="A25" s="218"/>
       <c r="B25" s="217"/>
       <c r="C25" s="161"/>
       <c r="D25" s="2" t="s">
@@ -5975,59 +5971,59 @@
       <c r="L25" s="161"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="219"/>
+      <c r="A26" s="218"/>
       <c r="B26" s="217"/>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="163" t="s">
         <v>359</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="166" t="s">
+      <c r="E26" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="167"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="168"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="167"/>
       <c r="M26" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="219"/>
+      <c r="A27" s="218"/>
       <c r="B27" s="217"/>
-      <c r="C27" s="165"/>
+      <c r="C27" s="164"/>
       <c r="D27" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="166" t="s">
+      <c r="E27" s="165" t="s">
         <v>302</v>
       </c>
-      <c r="F27" s="167"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="167"/>
-      <c r="I27" s="167"/>
-      <c r="J27" s="167"/>
-      <c r="K27" s="167"/>
-      <c r="L27" s="168"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="167"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="218"/>
+      <c r="A28" s="219"/>
       <c r="B28" s="220"/>
-      <c r="C28" s="163"/>
-      <c r="D28" s="163"/>
-      <c r="E28" s="163"/>
-      <c r="F28" s="163"/>
-      <c r="G28" s="163"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="163"/>
-      <c r="J28" s="163"/>
-      <c r="K28" s="163"/>
-      <c r="L28" s="163"/>
+      <c r="C28" s="220"/>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="220"/>
+      <c r="K28" s="220"/>
+      <c r="L28" s="220"/>
     </row>
     <row r="29" spans="1:13" ht="18.75" customHeight="1">
       <c r="A29" s="106" t="s">
@@ -6054,7 +6050,7 @@
       <c r="L29" s="152"/>
     </row>
     <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="161" t="s">
+      <c r="C30" s="163" t="s">
         <v>294</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6082,7 +6078,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="161"/>
+      <c r="C31" s="170"/>
       <c r="D31" s="2" t="s">
         <v>180</v>
       </c>
@@ -6108,7 +6104,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="161"/>
+      <c r="C32" s="170"/>
       <c r="D32" s="2" t="s">
         <v>244</v>
       </c>
@@ -6132,7 +6128,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="161"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="2" t="s">
         <v>305</v>
       </c>
@@ -6180,7 +6176,7 @@
       <c r="L35" s="152"/>
     </row>
     <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="161" t="s">
+      <c r="C36" s="163" t="s">
         <v>294</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -6208,7 +6204,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="161"/>
+      <c r="C37" s="170"/>
       <c r="D37" s="2" t="s">
         <v>180</v>
       </c>
@@ -6234,7 +6230,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="161"/>
+      <c r="C38" s="170"/>
       <c r="D38" s="2" t="s">
         <v>244</v>
       </c>
@@ -6258,7 +6254,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="161"/>
+      <c r="C39" s="164"/>
       <c r="D39" s="2" t="s">
         <v>305</v>
       </c>
@@ -6282,7 +6278,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="161" t="s">
+      <c r="C40" s="163" t="s">
         <v>295</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -6302,7 +6298,7 @@
       <c r="L40" s="161"/>
     </row>
     <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="161"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="2" t="s">
         <v>303</v>
       </c>
@@ -6320,7 +6316,7 @@
       <c r="L41" s="161"/>
     </row>
     <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="161"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="2" t="s">
         <v>311</v>
       </c>
@@ -6339,7 +6335,7 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="28">
+  <mergeCells count="27">
     <mergeCell ref="G25:L25"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="C30:C33"/>
@@ -6352,7 +6348,6 @@
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
     <mergeCell ref="F35:L35"/>
-    <mergeCell ref="A28:L28"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:L26"/>
     <mergeCell ref="F11:L11"/>
@@ -6369,7 +6364,7 @@
     <mergeCell ref="G41:L41"/>
     <mergeCell ref="G42:L42"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="4">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
       <formula1>AttributeType</formula1>
     </dataValidation>

--- a/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
+++ b/Templates/RSLIL-ExcelTemplate-v1.4.xlsx
@@ -1631,7 +1631,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1888,299 +1888,295 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
@@ -2682,33 +2678,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="202" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
       <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198" t="s">
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
       <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -2776,9 +2772,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="201"/>
+      <c r="A14" s="205"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
       <c r="D14" s="14">
         <v>2</v>
       </c>
@@ -2856,9 +2852,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="199"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="201"/>
+      <c r="A17" s="205"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="207"/>
       <c r="D17" s="14" t="s">
         <v>144</v>
       </c>
@@ -2970,33 +2966,33 @@
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A10" s="196" t="s">
+      <c r="A10" s="202" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="196"/>
-      <c r="C10" s="196"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="202"/>
       <c r="J10" s="70"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="203" t="s">
         <v>124</v>
       </c>
-      <c r="B11" s="197"/>
-      <c r="C11" s="197"/>
-      <c r="D11" s="198" t="s">
+      <c r="B11" s="203"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="204" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="198"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="198"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
       <c r="J11" s="71"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1">
@@ -3064,9 +3060,9 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A14" s="199"/>
-      <c r="B14" s="200"/>
-      <c r="C14" s="201"/>
+      <c r="A14" s="205"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="207"/>
       <c r="D14" s="14">
         <v>2</v>
       </c>
@@ -3144,9 +3140,9 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="34.5" customHeight="1">
-      <c r="A17" s="199"/>
-      <c r="B17" s="200"/>
-      <c r="C17" s="201"/>
+      <c r="A17" s="205"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="207"/>
       <c r="D17" s="14" t="s">
         <v>144</v>
       </c>
@@ -3220,11 +3216,11 @@
       <c r="B3" s="48"/>
       <c r="C3" s="48"/>
       <c r="D3" s="54"/>
-      <c r="E3" s="202"/>
-      <c r="F3" s="202"/>
-      <c r="G3" s="202"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
@@ -3233,44 +3229,44 @@
       <c r="B4" s="76"/>
       <c r="C4" s="76"/>
       <c r="D4" s="80"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="203"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
+      <c r="E4" s="209"/>
+      <c r="F4" s="209"/>
+      <c r="G4" s="209"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
     </row>
     <row r="6" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A6" s="207" t="s">
+      <c r="A6" s="213" t="s">
         <v>259</v>
       </c>
-      <c r="B6" s="207" t="s">
+      <c r="B6" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="207" t="s">
+      <c r="C6" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="207" t="s">
+      <c r="D6" s="213" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="207" t="s">
+      <c r="F6" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="G6" s="204" t="s">
+      <c r="G6" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="H6" s="205"/>
-      <c r="I6" s="206"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="212"/>
     </row>
     <row r="7" spans="1:9" ht="45" customHeight="1">
-      <c r="A7" s="207"/>
-      <c r="B7" s="207"/>
-      <c r="C7" s="207"/>
-      <c r="D7" s="207"/>
-      <c r="E7" s="207"/>
-      <c r="F7" s="207"/>
+      <c r="A7" s="213"/>
+      <c r="B7" s="213"/>
+      <c r="C7" s="213"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
       <c r="G7" s="87" t="s">
         <v>251</v>
       </c>
@@ -3381,8 +3377,8 @@
       <c r="H3" s="54"/>
       <c r="I3" s="54"/>
       <c r="J3" s="54"/>
-      <c r="K3" s="202"/>
-      <c r="L3" s="202"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="75" t="s">
@@ -3397,54 +3393,54 @@
       <c r="H4" s="80"/>
       <c r="I4" s="80"/>
       <c r="J4" s="80"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="209"/>
     </row>
     <row r="6" spans="1:12" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:12" ht="15.75">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="213" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="210" t="s">
+      <c r="D7" s="214" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="210" t="s">
+      <c r="E7" s="214" t="s">
         <v>345</v>
       </c>
-      <c r="F7" s="208" t="s">
+      <c r="F7" s="216" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="208" t="s">
+      <c r="G7" s="216" t="s">
         <v>207</v>
       </c>
-      <c r="H7" s="207" t="s">
+      <c r="H7" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="207" t="s">
+      <c r="I7" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="J7" s="204" t="s">
+      <c r="J7" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="K7" s="205"/>
-      <c r="L7" s="206"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="212"/>
     </row>
     <row r="8" spans="1:12" ht="31.5">
-      <c r="A8" s="207"/>
-      <c r="B8" s="207"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="211"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="207"/>
-      <c r="I8" s="207"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="215"/>
+      <c r="F8" s="217"/>
+      <c r="G8" s="217"/>
+      <c r="H8" s="213"/>
+      <c r="I8" s="213"/>
       <c r="J8" s="87" t="s">
         <v>251</v>
       </c>
@@ -3489,11 +3485,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="F7:F8"/>
@@ -3501,6 +3492,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:J10">
@@ -3563,8 +3559,8 @@
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
       <c r="G3" s="54"/>
-      <c r="H3" s="202"/>
-      <c r="I3" s="202"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
     </row>
     <row r="4" spans="1:9" ht="23.25">
       <c r="A4" s="75" t="s">
@@ -3576,42 +3572,42 @@
       <c r="E4" s="80"/>
       <c r="F4" s="80"/>
       <c r="G4" s="80"/>
-      <c r="H4" s="203"/>
-      <c r="I4" s="203"/>
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
     </row>
     <row r="6" spans="1:9" ht="30.75" customHeight="1"/>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="213" t="s">
         <v>259</v>
       </c>
-      <c r="B7" s="207" t="s">
+      <c r="B7" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="207" t="s">
+      <c r="C7" s="213" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="210" t="s">
+      <c r="D7" s="214" t="s">
         <v>267</v>
       </c>
-      <c r="E7" s="207" t="s">
+      <c r="E7" s="213" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="207" t="s">
+      <c r="F7" s="213" t="s">
         <v>274</v>
       </c>
-      <c r="G7" s="204" t="s">
+      <c r="G7" s="210" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="205"/>
-      <c r="I7" s="206"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="212"/>
     </row>
     <row r="8" spans="1:9" ht="31.5">
-      <c r="A8" s="207"/>
-      <c r="B8" s="207"/>
-      <c r="C8" s="207"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="207"/>
-      <c r="F8" s="207"/>
+      <c r="A8" s="213"/>
+      <c r="B8" s="213"/>
+      <c r="C8" s="213"/>
+      <c r="D8" s="215"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
       <c r="G8" s="87" t="s">
         <v>251</v>
       </c>
@@ -3705,22 +3701,22 @@
         <v>Prj-Demo - Demo System</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="124" t="s">
+      <c r="C3" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="126"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
       <c r="A4" s="81" t="s">
         <v>145</v>
       </c>
       <c r="B4" s="81"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="129"/>
+      <c r="C4" s="131"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="133"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="18" t="s">
@@ -4023,18 +4019,18 @@
       <c r="A29" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
-      <c r="D29" s="123"/>
-      <c r="E29" s="123"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="123"/>
-      <c r="H29" s="123"/>
-      <c r="I29" s="123"/>
-      <c r="J29" s="123"/>
-      <c r="K29" s="123"/>
-      <c r="L29" s="123"/>
-      <c r="M29" s="123"/>
+      <c r="B29" s="126"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="127"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="127"/>
+      <c r="L29" s="127"/>
+      <c r="M29" s="127"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="5" t="s">
@@ -4142,14 +4138,14 @@
       <c r="A37" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B37" s="134"/>
-      <c r="C37" s="135"/>
-      <c r="D37" s="135"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="135"/>
-      <c r="G37" s="135"/>
-      <c r="H37" s="135"/>
-      <c r="I37" s="135"/>
+      <c r="B37" s="138"/>
+      <c r="C37" s="139"/>
+      <c r="D37" s="139"/>
+      <c r="E37" s="139"/>
+      <c r="F37" s="139"/>
+      <c r="G37" s="139"/>
+      <c r="H37" s="139"/>
+      <c r="I37" s="139"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="5" t="s">
@@ -4197,12 +4193,12 @@
       <c r="A42" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="56" t="s">
@@ -4231,10 +4227,10 @@
       <c r="A45" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="123"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="133"/>
+      <c r="B45" s="126"/>
+      <c r="C45" s="127"/>
+      <c r="D45" s="127"/>
+      <c r="E45" s="137"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="56" t="s">
@@ -4277,13 +4273,13 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="130" t="s">
+      <c r="A50" s="134" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="131"/>
-      <c r="C50" s="131"/>
-      <c r="D50" s="131"/>
-      <c r="E50" s="132"/>
+      <c r="B50" s="135"/>
+      <c r="C50" s="135"/>
+      <c r="D50" s="135"/>
+      <c r="E50" s="136"/>
     </row>
     <row r="51" spans="1:11">
       <c r="A51" s="2"/>
@@ -4340,13 +4336,13 @@
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="130" t="s">
+      <c r="A55" s="134" t="s">
         <v>33</v>
       </c>
-      <c r="B55" s="131"/>
-      <c r="C55" s="131"/>
-      <c r="D55" s="131"/>
-      <c r="E55" s="132"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="136"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="2" t="s">
@@ -4635,10 +4631,10 @@
         <v>Prj-Demo - Demo System</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="136" t="s">
+      <c r="C3" s="141" t="s">
         <v>247</v>
       </c>
-      <c r="D3" s="212"/>
+      <c r="D3" s="120"/>
       <c r="F3" s="50"/>
       <c r="G3" s="50"/>
     </row>
@@ -4647,8 +4643,8 @@
         <v>146</v>
       </c>
       <c r="B4" s="76"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="120"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
     </row>
@@ -4656,11 +4652,11 @@
       <c r="A5" s="44"/>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1">
-      <c r="A6" s="215" t="s">
+      <c r="A6" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="215"/>
-      <c r="C6" s="215"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
       <c r="D6" s="50"/>
       <c r="E6" s="50"/>
     </row>
@@ -4687,18 +4683,18 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5" customHeight="1">
-      <c r="A9" s="212"/>
-      <c r="B9" s="212"/>
-      <c r="C9" s="212"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A10" s="213" t="s">
+      <c r="A10" s="142" t="s">
         <v>248</v>
       </c>
-      <c r="B10" s="213"/>
-      <c r="C10" s="213"/>
-      <c r="D10" s="213"/>
-      <c r="E10" s="214"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="143"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
     </row>
@@ -4832,31 +4828,31 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="23.25">
-      <c r="A2" s="143" t="str">
+      <c r="A2" s="144" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="144"/>
     </row>
     <row r="3" spans="1:9" ht="23.25">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="145" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="145"/>
     </row>
     <row r="4" spans="1:9" ht="29.25" customHeight="1"/>
     <row r="5" spans="1:9" ht="18" customHeight="1">
@@ -4889,23 +4885,23 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="146" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="140" t="s">
+      <c r="B6" s="146" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="140" t="s">
+      <c r="C6" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="146" t="s">
         <v>113</v>
       </c>
-      <c r="E6" s="140"/>
-      <c r="F6" s="137" t="s">
+      <c r="E6" s="146"/>
+      <c r="F6" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="140" t="s">
+      <c r="G6" s="146" t="s">
         <v>97</v>
       </c>
       <c r="H6" s="16" t="s">
@@ -4916,13 +4912,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="138"/>
-      <c r="G7" s="141"/>
+      <c r="A7" s="147"/>
+      <c r="B7" s="147"/>
+      <c r="C7" s="147"/>
+      <c r="D7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="147"/>
       <c r="H7" s="16" t="s">
         <v>57</v>
       </c>
@@ -4931,13 +4927,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A8" s="142"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="142"/>
+      <c r="A8" s="148"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="148"/>
       <c r="H8" s="16" t="s">
         <v>56</v>
       </c>
@@ -4946,23 +4942,23 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="146" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="146" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="140" t="s">
+      <c r="C9" s="146" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="146" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="140"/>
-      <c r="F9" s="137" t="s">
+      <c r="E9" s="146"/>
+      <c r="F9" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="140" t="s">
+      <c r="G9" s="146" t="s">
         <v>98</v>
       </c>
       <c r="H9" s="16" t="s">
@@ -4973,51 +4969,51 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="141"/>
+      <c r="A10" s="147"/>
+      <c r="B10" s="147"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="147"/>
       <c r="H10" s="16" t="s">
         <v>57</v>
       </c>
       <c r="I10" s="16"/>
     </row>
     <row r="11" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A11" s="142"/>
-      <c r="B11" s="142"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="142"/>
+      <c r="A11" s="148"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="148"/>
       <c r="H11" s="16" t="s">
         <v>56</v>
       </c>
       <c r="I11" s="16"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="140" t="s">
+      <c r="A12" s="146" t="s">
         <v>238</v>
       </c>
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="146" t="s">
         <v>266</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="146" t="s">
         <v>241</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="146" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="146" t="s">
         <v>239</v>
       </c>
-      <c r="F12" s="137" t="s">
+      <c r="F12" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="146" t="s">
         <v>240</v>
       </c>
       <c r="H12" s="16" t="s">
@@ -5026,26 +5022,26 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="141"/>
+      <c r="A13" s="147"/>
+      <c r="B13" s="147"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="147"/>
+      <c r="E13" s="147"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="147"/>
       <c r="H13" s="16" t="s">
         <v>57</v>
       </c>
       <c r="I13" s="16"/>
     </row>
     <row r="14" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A14" s="142"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="139"/>
-      <c r="G14" s="142"/>
+      <c r="A14" s="148"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="148"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="148"/>
       <c r="H14" s="16" t="s">
         <v>56</v>
       </c>
@@ -5053,15 +5049,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
-    <mergeCell ref="G6:G8"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="C6:C8"/>
     <mergeCell ref="F9:F11"/>
     <mergeCell ref="G9:G11"/>
     <mergeCell ref="A12:A14"/>
@@ -5076,6 +5063,15 @@
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="E9:E11"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="G6:G8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="C6:C8"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D12 D9">
@@ -5136,25 +5132,25 @@
     </row>
     <row r="2" spans="1:6" ht="10.5" customHeight="1"/>
     <row r="3" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A3" s="143" t="str">
+      <c r="A3" s="144" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1"/>
     <row r="6" spans="1:6" ht="18.75" customHeight="1">
@@ -5283,47 +5279,47 @@
     </row>
     <row r="2" spans="1:14" ht="11.25" customHeight="1"/>
     <row r="3" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A3" s="143" t="str">
+      <c r="A3" s="144" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
     </row>
     <row r="4" spans="1:14" ht="23.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="145" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="166" t="s">
         <v>275</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="158"/>
-      <c r="D6" s="158"/>
+      <c r="B6" s="166"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="165"/>
       <c r="E6" s="83"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="167" t="s">
         <v>276</v>
       </c>
-      <c r="B7" s="160"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="B7" s="167"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="83"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1"/>
@@ -5343,24 +5339,24 @@
       <c r="E9" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="154"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="161"/>
     </row>
     <row r="10" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A10" s="145"/>
-      <c r="B10" s="146"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="155" t="s">
+      <c r="A10" s="152"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="162" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="156"/>
-      <c r="F10" s="156"/>
-      <c r="G10" s="157"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="164"/>
     </row>
     <row r="11" spans="1:14" ht="22.5" customHeight="1">
-      <c r="A11" s="148"/>
-      <c r="B11" s="149"/>
-      <c r="C11" s="150"/>
+      <c r="A11" s="155"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="157"/>
       <c r="D11" s="86" t="s">
         <v>199</v>
       </c>
@@ -5492,8 +5488,8 @@
       <c r="E18" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="151"/>
-      <c r="G18" s="152"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="159"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5534,8 +5530,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5562,37 +5558,37 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="23.25">
-      <c r="A3" s="143" t="str">
+      <c r="A3" s="144" t="str">
         <f>index!A1</f>
         <v>Prj-Demo - Demo System</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="144"/>
+      <c r="F3" s="144"/>
+      <c r="G3" s="144"/>
+      <c r="H3" s="144"/>
+      <c r="I3" s="144"/>
+      <c r="J3" s="144"/>
+      <c r="K3" s="144"/>
+      <c r="L3" s="144"/>
     </row>
     <row r="4" spans="1:12" ht="23.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="145" t="s">
         <v>313</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
     </row>
     <row r="5" spans="1:12" ht="18.75" customHeight="1">
       <c r="A5" s="4"/>
@@ -5606,16 +5602,16 @@
       <c r="A7" s="107" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="158"/>
-      <c r="D7" s="158"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
       <c r="E7" s="69"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C8" s="158"/>
-      <c r="D8" s="158"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
       <c r="E8" s="69"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
@@ -5635,10 +5631,10 @@
       <c r="F10" s="100"/>
       <c r="G10" s="100"/>
       <c r="H10" s="100"/>
-      <c r="I10" s="169"/>
-      <c r="J10" s="169"/>
-      <c r="K10" s="169"/>
-      <c r="L10" s="169"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
     </row>
     <row r="11" spans="1:12" ht="25.5" customHeight="1">
       <c r="A11" s="95" t="s">
@@ -5656,26 +5652,26 @@
       <c r="E11" s="101" t="s">
         <v>291</v>
       </c>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-      <c r="K11" s="168"/>
-      <c r="L11" s="168"/>
+      <c r="F11" s="181"/>
+      <c r="G11" s="181"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181"/>
+      <c r="J11" s="181"/>
+      <c r="K11" s="181"/>
+      <c r="L11" s="181"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D12" s="174" t="s">
+      <c r="D12" s="172" t="s">
         <v>294</v>
       </c>
-      <c r="E12" s="175"/>
-      <c r="F12" s="175"/>
-      <c r="G12" s="175"/>
-      <c r="H12" s="175"/>
-      <c r="I12" s="175"/>
-      <c r="J12" s="175"/>
-      <c r="K12" s="175"/>
-      <c r="L12" s="176"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="173"/>
+      <c r="G12" s="173"/>
+      <c r="H12" s="173"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="173"/>
+      <c r="K12" s="173"/>
+      <c r="L12" s="174"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
       <c r="D13" s="10" t="s">
@@ -5707,17 +5703,17 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D14" s="174" t="s">
+      <c r="D14" s="172" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="175"/>
-      <c r="I14" s="175"/>
-      <c r="J14" s="175"/>
-      <c r="K14" s="175"/>
-      <c r="L14" s="176"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="173"/>
+      <c r="G14" s="173"/>
+      <c r="H14" s="173"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="173"/>
+      <c r="K14" s="173"/>
+      <c r="L14" s="174"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
       <c r="D15" s="10" t="s">
@@ -5729,40 +5725,40 @@
       <c r="F15" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="G15" s="177"/>
-      <c r="H15" s="178"/>
-      <c r="I15" s="178"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="178"/>
-      <c r="L15" s="179"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="176"/>
+      <c r="I15" s="176"/>
+      <c r="J15" s="176"/>
+      <c r="K15" s="176"/>
+      <c r="L15" s="177"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="D16" s="174" t="s">
+      <c r="D16" s="172" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
-      <c r="L16" s="176"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="173"/>
+      <c r="H16" s="173"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="173"/>
+      <c r="K16" s="173"/>
+      <c r="L16" s="174"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" customHeight="1">
       <c r="D17" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E17" s="171" t="s">
+      <c r="E17" s="183" t="s">
         <v>300</v>
       </c>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="172"/>
-      <c r="L17" s="173"/>
+      <c r="F17" s="184"/>
+      <c r="G17" s="184"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="184"/>
+      <c r="J17" s="184"/>
+      <c r="K17" s="184"/>
+      <c r="L17" s="185"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" customHeight="1">
       <c r="A18" s="106" t="s">
@@ -5780,18 +5776,18 @@
       <c r="E18" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F18" s="151"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="162"/>
-      <c r="I18" s="162"/>
-      <c r="J18" s="162"/>
-      <c r="K18" s="162"/>
-      <c r="L18" s="152"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="169"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="169"/>
+      <c r="K18" s="169"/>
+      <c r="L18" s="159"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A19" s="218"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="161" t="s">
+      <c r="A19" s="123"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="168" t="s">
         <v>294</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -5824,9 +5820,9 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A20" s="218"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="161"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="122"/>
+      <c r="C20" s="168"/>
       <c r="D20" s="2" t="s">
         <v>180</v>
       </c>
@@ -5852,9 +5848,9 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A21" s="218"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="161"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="122"/>
+      <c r="C21" s="168"/>
       <c r="D21" s="2" t="s">
         <v>244</v>
       </c>
@@ -5878,9 +5874,9 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A22" s="218"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="161"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="122"/>
+      <c r="C22" s="168"/>
       <c r="D22" s="2" t="s">
         <v>305</v>
       </c>
@@ -5906,9 +5902,9 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A23" s="218"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="161" t="s">
+      <c r="A23" s="123"/>
+      <c r="B23" s="122"/>
+      <c r="C23" s="168" t="s">
         <v>295</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -5920,20 +5916,20 @@
       <c r="F23" s="25">
         <v>1</v>
       </c>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="168"/>
+      <c r="K23" s="168"/>
+      <c r="L23" s="168"/>
       <c r="M23" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A24" s="218"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="161"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="122"/>
+      <c r="C24" s="168"/>
       <c r="D24" s="2" t="s">
         <v>303</v>
       </c>
@@ -5943,17 +5939,17 @@
       <c r="F24" s="25">
         <v>1</v>
       </c>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="168"/>
+      <c r="J24" s="168"/>
+      <c r="K24" s="168"/>
+      <c r="L24" s="168"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A25" s="218"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="161"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="122"/>
+      <c r="C25" s="168"/>
       <c r="D25" s="2" t="s">
         <v>304</v>
       </c>
@@ -5963,73 +5959,73 @@
       <c r="F25" s="25">
         <v>1</v>
       </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="168"/>
+      <c r="J25" s="168"/>
+      <c r="K25" s="168"/>
+      <c r="L25" s="168"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A26" s="218"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="163" t="s">
+      <c r="A26" s="123"/>
+      <c r="B26" s="122"/>
+      <c r="C26" s="170" t="s">
         <v>359</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E26" s="165" t="s">
+      <c r="E26" s="178" t="s">
         <v>308</v>
       </c>
-      <c r="F26" s="166"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="166"/>
-      <c r="L26" s="167"/>
+      <c r="F26" s="179"/>
+      <c r="G26" s="179"/>
+      <c r="H26" s="179"/>
+      <c r="I26" s="179"/>
+      <c r="J26" s="179"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="180"/>
       <c r="M26" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A27" s="218"/>
-      <c r="B27" s="217"/>
-      <c r="C27" s="164"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="171"/>
       <c r="D27" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E27" s="165" t="s">
+      <c r="E27" s="178" t="s">
         <v>302</v>
       </c>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="167"/>
+      <c r="F27" s="179"/>
+      <c r="G27" s="179"/>
+      <c r="H27" s="179"/>
+      <c r="I27" s="179"/>
+      <c r="J27" s="179"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="180"/>
     </row>
     <row r="28" spans="1:13" ht="22.5" customHeight="1">
-      <c r="A28" s="219"/>
-      <c r="B28" s="220"/>
-      <c r="C28" s="220"/>
-      <c r="D28" s="220"/>
-      <c r="E28" s="220"/>
-      <c r="F28" s="220"/>
-      <c r="G28" s="220"/>
-      <c r="H28" s="220"/>
-      <c r="I28" s="220"/>
-      <c r="J28" s="220"/>
-      <c r="K28" s="220"/>
-      <c r="L28" s="220"/>
-    </row>
-    <row r="29" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A28" s="218"/>
+      <c r="B28" s="123"/>
+      <c r="C28" s="123"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="123"/>
+      <c r="F28" s="123"/>
+      <c r="G28" s="123"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="123"/>
+      <c r="L28" s="123"/>
+    </row>
+    <row r="29" spans="1:13" s="72" customFormat="1">
       <c r="A29" s="106" t="s">
         <v>299</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="106" t="s">
         <v>176</v>
       </c>
       <c r="C29" s="108" t="s">
@@ -6041,16 +6037,18 @@
       <c r="E29" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F29" s="151"/>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="162"/>
-      <c r="K29" s="162"/>
-      <c r="L29" s="152"/>
-    </row>
-    <row r="30" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C30" s="163" t="s">
+      <c r="F29" s="158"/>
+      <c r="G29" s="169"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="169"/>
+      <c r="K29" s="169"/>
+      <c r="L29" s="159"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="123"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="168" t="s">
         <v>294</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -6065,7 +6063,9 @@
       <c r="G30" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="25">
+        <v>250</v>
+      </c>
       <c r="I30" s="25">
         <v>1</v>
       </c>
@@ -6077,8 +6077,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C31" s="170"/>
+    <row r="31" spans="1:13">
+      <c r="A31" s="123"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="168"/>
       <c r="D31" s="2" t="s">
         <v>180</v>
       </c>
@@ -6103,8 +6105,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="18.75" customHeight="1">
-      <c r="C32" s="170"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="123"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="168"/>
       <c r="D32" s="2" t="s">
         <v>244</v>
       </c>
@@ -6121,14 +6125,16 @@
       </c>
       <c r="J32" s="25"/>
       <c r="K32" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L32" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C33" s="164"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="123"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="168"/>
       <c r="D33" s="2" t="s">
         <v>305</v>
       </c>
@@ -6139,7 +6145,9 @@
       <c r="G33" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H33" s="25"/>
+      <c r="H33" s="25">
+        <v>10.199999999999999</v>
+      </c>
       <c r="I33" s="25" t="s">
         <v>216</v>
       </c>
@@ -6151,123 +6159,129 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A35" s="106" t="s">
+    <row r="34" spans="1:12">
+      <c r="A34" s="123"/>
+      <c r="B34" s="122"/>
+      <c r="C34" s="168" t="s">
+        <v>295</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F34" s="25">
+        <v>1</v>
+      </c>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="168"/>
+      <c r="J34" s="168"/>
+      <c r="K34" s="168"/>
+      <c r="L34" s="168"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="123"/>
+      <c r="B35" s="122"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B35" s="107" t="s">
+      <c r="E35" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35" s="25">
+        <v>1</v>
+      </c>
+      <c r="G35" s="168"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="168"/>
+      <c r="L35" s="168"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="123"/>
+      <c r="B36" s="122"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F36" s="25">
+        <v>1</v>
+      </c>
+      <c r="G36" s="168"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="168"/>
+      <c r="L36" s="168"/>
+    </row>
+    <row r="37" spans="1:12" ht="22.5" customHeight="1">
+      <c r="A37" s="218"/>
+      <c r="B37" s="123"/>
+      <c r="C37" s="123"/>
+      <c r="D37" s="123"/>
+      <c r="E37" s="123"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="123"/>
+      <c r="H37" s="123"/>
+      <c r="I37" s="123"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="123"/>
+      <c r="L37" s="123"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="106" t="s">
+        <v>303</v>
+      </c>
+      <c r="B38" s="106" t="s">
         <v>309</v>
       </c>
-      <c r="C35" s="108" t="s">
+      <c r="C38" s="108" t="s">
         <v>310</v>
       </c>
-      <c r="D35" s="106" t="s">
-        <v>290</v>
-      </c>
-      <c r="E35" s="109" t="s">
+      <c r="D38" s="106" t="s">
+        <v>289</v>
+      </c>
+      <c r="E38" s="109" t="s">
         <v>292</v>
       </c>
-      <c r="F35" s="151"/>
-      <c r="G35" s="162"/>
-      <c r="H35" s="162"/>
-      <c r="I35" s="162"/>
-      <c r="J35" s="162"/>
-      <c r="K35" s="162"/>
-      <c r="L35" s="152"/>
-    </row>
-    <row r="36" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C36" s="163" t="s">
+      <c r="F38" s="158"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="159"/>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" s="123"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="168" t="s">
         <v>294</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H36" s="25"/>
-      <c r="I36" s="25">
+      <c r="H39" s="25">
+        <v>250</v>
+      </c>
+      <c r="I39" s="25">
         <v>1</v>
-      </c>
-      <c r="J36" s="25"/>
-      <c r="K36" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="L36" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C37" s="170"/>
-      <c r="D37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="25"/>
-      <c r="I37" s="25">
-        <v>1</v>
-      </c>
-      <c r="J37" s="25"/>
-      <c r="K37" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="L37" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C38" s="170"/>
-      <c r="D38" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25" t="s">
-        <v>350</v>
-      </c>
-      <c r="L38" s="25" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C39" s="164"/>
-      <c r="D39" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25" t="s">
-        <v>216</v>
       </c>
       <c r="J39" s="25"/>
       <c r="K39" s="25" t="s">
@@ -6277,77 +6291,101 @@
         <v>350</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C40" s="163" t="s">
-        <v>295</v>
-      </c>
+    <row r="40" spans="1:12">
+      <c r="A40" s="123"/>
+      <c r="B40" s="122"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="2" t="s">
-        <v>299</v>
+        <v>180</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25">
         <v>1</v>
       </c>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
-      <c r="J40" s="161"/>
-      <c r="K40" s="161"/>
-      <c r="L40" s="161"/>
-    </row>
-    <row r="41" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C41" s="170"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="L40" s="25" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="123"/>
+      <c r="B41" s="122"/>
+      <c r="C41" s="168"/>
       <c r="D41" s="2" t="s">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F41" s="25">
-        <v>1</v>
-      </c>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="161"/>
-      <c r="L41" s="161"/>
-    </row>
-    <row r="42" spans="1:12" ht="18.75" customHeight="1">
-      <c r="C42" s="164"/>
+        <v>244</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25" t="s">
+        <v>349</v>
+      </c>
+      <c r="L41" s="25" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="123"/>
+      <c r="B42" s="122"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="F42" s="25">
-        <v>1</v>
-      </c>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
-      <c r="J42" s="161"/>
-      <c r="K42" s="161"/>
-      <c r="L42" s="161"/>
+        <v>305</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H42" s="25">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I42" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" s="25" t="s">
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="27">
-    <mergeCell ref="G25:L25"/>
     <mergeCell ref="F29:L29"/>
     <mergeCell ref="C30:C33"/>
-    <mergeCell ref="C7:D8"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="G15:L15"/>
-    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="G34:L34"/>
+    <mergeCell ref="G35:L35"/>
+    <mergeCell ref="G36:L36"/>
+    <mergeCell ref="F38:L38"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="A3:L3"/>
     <mergeCell ref="A4:L4"/>
-    <mergeCell ref="F35:L35"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="E26:L26"/>
     <mergeCell ref="F11:L11"/>
@@ -6358,23 +6396,25 @@
     <mergeCell ref="D14:L14"/>
     <mergeCell ref="G23:L23"/>
     <mergeCell ref="G24:L24"/>
-    <mergeCell ref="C36:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="G40:L40"/>
-    <mergeCell ref="G41:L41"/>
-    <mergeCell ref="G42:L42"/>
+    <mergeCell ref="G25:L25"/>
+    <mergeCell ref="C7:D8"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="G15:L15"/>
+    <mergeCell ref="D16:L16"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G19:G22 G30:G33 G36:G39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G39:G42 G30:G33 G19:G22">
       <formula1>AttributeType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F40:F42 I19:I22 F23:F25 I36:I39 I30:I33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I39:I42 F34:F36 I30:I33 F23:F25 I19:I22">
       <formula1>AttributeMultiplicity</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18 D29 D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D38 D29 D18">
       <formula1>EntityType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K19:L22 K30:L33 K36:L39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K39:L42 K30:L33 K19:L22">
       <formula1>Boolean</formula1>
     </dataValidation>
   </dataValidations>
@@ -6445,23 +6485,23 @@
       <c r="A6" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="180"/>
+      <c r="E6" s="186"/>
     </row>
     <row r="7" spans="1:9" s="103" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="E7" s="180"/>
+      <c r="E7" s="186"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="184" t="s">
+      <c r="A9" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="184"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="184"/>
+      <c r="B9" s="190"/>
+      <c r="C9" s="190"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="190"/>
+      <c r="F9" s="190"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="8" t="s">
@@ -6546,14 +6586,14 @@
       <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="181" t="s">
+      <c r="A15" s="187" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
-      <c r="D15" s="182"/>
-      <c r="E15" s="182"/>
-      <c r="F15" s="183"/>
+      <c r="B15" s="188"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="188"/>
+      <c r="E15" s="188"/>
+      <c r="F15" s="189"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="8" t="s">
@@ -6683,25 +6723,25 @@
       <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="1:17" ht="23.25">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="B4" s="144"/>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="144"/>
-      <c r="F4" s="144"/>
-      <c r="G4" s="144"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="144"/>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="144"/>
-      <c r="P4" s="144"/>
-      <c r="Q4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="145"/>
+      <c r="J4" s="145"/>
+      <c r="K4" s="145"/>
+      <c r="L4" s="145"/>
+      <c r="M4" s="145"/>
+      <c r="N4" s="145"/>
+      <c r="O4" s="145"/>
+      <c r="P4" s="145"/>
+      <c r="Q4" s="145"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="105" t="s">
@@ -6714,72 +6754,72 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="15.75" customHeight="1">
-      <c r="A9" s="193" t="s">
+      <c r="A9" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="194"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="194"/>
-      <c r="F9" s="194"/>
-      <c r="G9" s="194"/>
-      <c r="H9" s="194"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="194"/>
-      <c r="K9" s="194"/>
-      <c r="L9" s="194"/>
-      <c r="M9" s="194"/>
-      <c r="N9" s="194"/>
-      <c r="O9" s="194"/>
-      <c r="P9" s="194"/>
-      <c r="Q9" s="195"/>
+      <c r="B9" s="193"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="193"/>
+      <c r="N9" s="193"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="193"/>
+      <c r="Q9" s="194"/>
     </row>
     <row r="10" spans="1:17" ht="33" customHeight="1">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="198" t="s">
         <v>259</v>
       </c>
-      <c r="B10" s="186" t="s">
+      <c r="B10" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="186" t="s">
+      <c r="D10" s="198" t="s">
         <v>260</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="195" t="s">
         <v>335</v>
       </c>
-      <c r="F10" s="192"/>
-      <c r="G10" s="191"/>
-      <c r="H10" s="186" t="s">
+      <c r="F10" s="196"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="I10" s="188" t="s">
+      <c r="I10" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="J10" s="189"/>
-      <c r="K10" s="190" t="s">
+      <c r="J10" s="201"/>
+      <c r="K10" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="L10" s="191"/>
-      <c r="M10" s="190" t="s">
+      <c r="L10" s="197"/>
+      <c r="M10" s="195" t="s">
         <v>340</v>
       </c>
-      <c r="N10" s="191"/>
+      <c r="N10" s="197"/>
       <c r="O10" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="P10" s="185" t="s">
+      <c r="P10" s="191" t="s">
         <v>341</v>
       </c>
-      <c r="Q10" s="185"/>
+      <c r="Q10" s="191"/>
     </row>
     <row r="11" spans="1:17" ht="33" customHeight="1">
-      <c r="A11" s="187"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
+      <c r="A11" s="199"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="199"/>
+      <c r="D11" s="199"/>
       <c r="E11" s="114" t="s">
         <v>332</v>
       </c>
@@ -6789,7 +6829,7 @@
       <c r="G11" s="114" t="s">
         <v>334</v>
       </c>
-      <c r="H11" s="187"/>
+      <c r="H11" s="199"/>
       <c r="I11" s="112" t="s">
         <v>201</v>
       </c>
@@ -6920,72 +6960,72 @@
       <c r="Q14" s="117"/>
     </row>
     <row r="15" spans="1:17" ht="18" customHeight="1">
-      <c r="A15" s="193" t="s">
+      <c r="A15" s="192" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="194"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="194"/>
-      <c r="K15" s="194"/>
-      <c r="L15" s="194"/>
-      <c r="M15" s="194"/>
-      <c r="N15" s="194"/>
-      <c r="O15" s="194"/>
-      <c r="P15" s="194"/>
-      <c r="Q15" s="195"/>
+      <c r="B15" s="193"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="193"/>
+      <c r="N15" s="193"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="193"/>
+      <c r="Q15" s="194"/>
     </row>
     <row r="16" spans="1:17" ht="33" customHeight="1">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="198" t="s">
         <v>259</v>
       </c>
-      <c r="B16" s="186" t="s">
+      <c r="B16" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="186" t="s">
+      <c r="C16" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="186" t="s">
+      <c r="D16" s="198" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="195" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="191"/>
-      <c r="H16" s="186" t="s">
+      <c r="F16" s="196"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="198" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="188" t="s">
+      <c r="I16" s="200" t="s">
         <v>338</v>
       </c>
-      <c r="J16" s="189"/>
-      <c r="K16" s="190" t="s">
+      <c r="J16" s="201"/>
+      <c r="K16" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="L16" s="191"/>
-      <c r="M16" s="190" t="s">
+      <c r="L16" s="197"/>
+      <c r="M16" s="195" t="s">
         <v>340</v>
       </c>
-      <c r="N16" s="191"/>
+      <c r="N16" s="197"/>
       <c r="O16" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="P16" s="185" t="s">
+      <c r="P16" s="191" t="s">
         <v>341</v>
       </c>
-      <c r="Q16" s="185"/>
+      <c r="Q16" s="191"/>
     </row>
     <row r="17" spans="1:17" ht="33" customHeight="1">
-      <c r="A17" s="187"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
+      <c r="A17" s="199"/>
+      <c r="B17" s="199"/>
+      <c r="C17" s="199"/>
+      <c r="D17" s="199"/>
       <c r="E17" s="114" t="s">
         <v>332</v>
       </c>
@@ -6995,7 +7035,7 @@
       <c r="G17" s="114" t="s">
         <v>334</v>
       </c>
-      <c r="H17" s="187"/>
+      <c r="H17" s="199"/>
       <c r="I17" s="112" t="s">
         <v>201</v>
       </c>
@@ -7045,6 +7085,19 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A4:Q4"/>
     <mergeCell ref="P10:Q10"/>
     <mergeCell ref="A9:Q9"/>
@@ -7055,19 +7108,6 @@
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12:L14 K18:L18">
